--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_785.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_785.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32107-d1115726-Reviews-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Travelodge-By-Wyndham-Brea.h3799972.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_785.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_785.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="692">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1962 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r586256070-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>32107</t>
+  </si>
+  <si>
+    <t>1115726</t>
+  </si>
+  <si>
+    <t>586256070</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>Pleasant Stay in Convenient Location</t>
+  </si>
+  <si>
+    <t>My reservation was waiting for me when I arrived in the early evening. I was given a room upstairs that was clean, simple but still with some nice features.  Had the appearance of a recent painting and some lighting fixture updating.  Good front desk host people.  Convenient location for Fullerton and N. Orange County.  Not many frills, but I was given what I paid for.  Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>My reservation was waiting for me when I arrived in the early evening. I was given a room upstairs that was clean, simple but still with some nice features.  Had the appearance of a recent painting and some lighting fixture updating.  Good front desk host people.  Convenient location for Fullerton and N. Orange County.  Not many frills, but I was given what I paid for.  Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r566704511-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>566704511</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>They put the bare minimum in the room, front desk didn’t...</t>
+  </si>
+  <si>
+    <t>They put the bare minimum in the room, front desk didn’t provide the wifi password, the guy didn’t even know where my room was located MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded March 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2018</t>
+  </si>
+  <si>
+    <t>They put the bare minimum in the room, front desk didn’t provide the wifi password, the guy didn’t even know where my room was located More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r563709262-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>563709262</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, Manager at Travelodge by Wyndham Brea, responded to this reviewResponded March 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2018</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r553759403-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>553759403</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r549177733-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>549177733</t>
+  </si>
+  <si>
+    <t>12/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very comfortable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and comfortable room with mini-fridge, microwave oven and coffee maker with supplies. It was nice and quiet. Staff was very helpful. Free breakfast and Wifi is a plus. Thanks for the great service! </t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r548496903-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>548496903</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r538618644-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>538618644</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded November 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r538521103-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>538521103</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r535967163-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>535967163</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded October 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r526440935-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>526440935</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>Roach Motel (Actually, spider and cricket)</t>
+  </si>
+  <si>
+    <t>When we walked into the room and turned on the light, there was a spider on one of the beds. The spider JUMPED off the bed and as I was about to step on it, it moved (kinda leaped) very fast across the floor. I cornered it and was able to kill it with my flip-flop. The bedspreads were dirty. Later, we found a cricket in the toilet, though it was dead. The breakfast was "continental", but VERY limited. We would not stay here again for the price we paid for the room, $127.20/night; two nights. That is why we always carry "raid and "lysol" with us on road trips. You have these problems in all types (price wise) of hotels, you never can tell.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded September 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2017</t>
+  </si>
+  <si>
+    <t>When we walked into the room and turned on the light, there was a spider on one of the beds. The spider JUMPED off the bed and as I was about to step on it, it moved (kinda leaped) very fast across the floor. I cornered it and was able to kill it with my flip-flop. The bedspreads were dirty. Later, we found a cricket in the toilet, though it was dead. The breakfast was "continental", but VERY limited. We would not stay here again for the price we paid for the room, $127.20/night; two nights. That is why we always carry "raid and "lysol" with us on road trips. You have these problems in all types (price wise) of hotels, you never can tell.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r509202306-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>509202306</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>Crash Pad for Travelors</t>
+  </si>
+  <si>
+    <t>Fun and part of the Staycation tour. Bed is comfortable and parking is secure within the travelodge. No issues with wifi, staff or location. Reasonable, clean and offered a serene adventure close to home.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r506199023-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>506199023</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Two nights in Brea</t>
+  </si>
+  <si>
+    <t>The hotel is fine, good location. When we arrived the toilet was filthy from a previous guest, but was cleaned after I went to the front desk.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r498063466-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>498063466</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>noisy, sleepless night</t>
+  </si>
+  <si>
+    <t>Bed was very uncomfortable, very hard, location of room was very noisy from outside disturbances. Disturbed our sleep or kept us from sleeping. The air conditioning was also very loud. We have stayed here before and didn't have these problems. Also I was charged a fee for booking he room through the internet and is was not disclosed at the time of booking. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Bed was very uncomfortable, very hard, location of room was very noisy from outside disturbances. Disturbed our sleep or kept us from sleeping. The air conditioning was also very loud. We have stayed here before and didn't have these problems. Also I was charged a fee for booking he room through the internet and is was not disclosed at the time of booking. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r497021601-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>497021601</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>Good place for the price.</t>
+  </si>
+  <si>
+    <t>We book for this place at the last minute, and we get our room fast enough to catch some sleep after a day at disneyland. Our room was clean, nice and the bed really cozy. Thanks for the great service!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r495189235-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>495189235</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r486966059-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>486966059</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r481333601-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>481333601</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Does not adhere to Wyndham Reward perks</t>
+  </si>
+  <si>
+    <t>This is a motel not hotel. If you are a Wyndham rewards member they will not honor the perks. The gentlemen that helped me would not let me check in early nor late as the perks indicate that I am entitled to. The room is small and not very clean. The walls and windows need a wipe down desperately! No kleenex... Only one hand and wash towel... Don't walk barefoot on the floor... The continental breakfast = 1 tiny can of apple and orange juice and bread on my first trip at 6am and on my 2nd trip to see what was offered was 1 more apple and orange juice, 1 bruised banana and 2 apples and bread for toast. What a joke! The internet was weak and the bed was like jello (reminded me of an I  Lucy episode). Now that I've checked out they have charged my card twice for the room. Probably won't be returning.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded May 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2017</t>
+  </si>
+  <si>
+    <t>This is a motel not hotel. If you are a Wyndham rewards member they will not honor the perks. The gentlemen that helped me would not let me check in early nor late as the perks indicate that I am entitled to. The room is small and not very clean. The walls and windows need a wipe down desperately! No kleenex... Only one hand and wash towel... Don't walk barefoot on the floor... The continental breakfast = 1 tiny can of apple and orange juice and bread on my first trip at 6am and on my 2nd trip to see what was offered was 1 more apple and orange juice, 1 bruised banana and 2 apples and bread for toast. What a joke! The internet was weak and the bed was like jello (reminded me of an I  Lucy episode). Now that I've checked out they have charged my card twice for the room. Probably won't be returning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r481308492-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>481308492</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r477466529-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>477466529</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r467441142-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>467441142</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r464116904-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>464116904</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r458766407-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>458766407</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r457747981-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>457747981</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r456882518-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>456882518</t>
+  </si>
+  <si>
+    <t>02/03/2017</t>
+  </si>
+  <si>
+    <t>VERY NICE PLACE!!!</t>
+  </si>
+  <si>
+    <t>This is one of the best Hotels I've been too. The owner and the people who work there are a pleasure to deal with. They are professional and have very good with customer service. They are always willing to accommodate guest in any way they can!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r455042035-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>455042035</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r453357657-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>453357657</t>
+  </si>
+  <si>
+    <t>01/19/2017</t>
+  </si>
+  <si>
+    <t>Not very Happy</t>
+  </si>
+  <si>
+    <t>There was a live bug crawling in my bed when I turned back the covers.  They had to change my room late and didn't offer to help me move. I still couldn't sleep well in the other room.Breakfast was just OK but could have had hard boiled eggs for a little protein.MoreShow less</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded January 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2017</t>
+  </si>
+  <si>
+    <t>There was a live bug crawling in my bed when I turned back the covers.  They had to change my room late and didn't offer to help me move. I still couldn't sleep well in the other room.Breakfast was just OK but could have had hard boiled eggs for a little protein.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r450514944-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>450514944</t>
+  </si>
+  <si>
+    <t>01/08/2017</t>
+  </si>
+  <si>
+    <t>Afraid to serve breakfast</t>
+  </si>
+  <si>
+    <t>Seriously, these ppl act like it's going to kill them to put out a breakfast. You have to come and they bring it out. The milk wasn't good like basically expired. I'll never return to this one...MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded January 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2017</t>
+  </si>
+  <si>
+    <t>Seriously, these ppl act like it's going to kill them to put out a breakfast. You have to come and they bring it out. The milk wasn't good like basically expired. I'll never return to this one...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r434181157-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>434181157</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Better than your average Travelodge</t>
+  </si>
+  <si>
+    <t>Most Travelodge locations are average at best .  This one is a cut above that. My room was very comfortable and clean.  Every thing worked fine and the staff was very polite and friendly.  Thanks for a good nights rest..</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r428171226-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>428171226</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded October 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r426747719-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>426747719</t>
+  </si>
+  <si>
+    <t>10/10/2016</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r410675180-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>410675180</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>For an old facility it was ok. But simple improvements would help. Only one chair for sitting and we were a couple. Bathroom very cramped for people of size. Found a pair of men's briefs stuck behind the bathroom door. No mat for the tub and the tub was very small. Maid forgot to have new soap when she stocked the room after cleaning. Bedside lights could be lower on the wall. + comments. Very quiet for a busy street. Good TV.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded August 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2016</t>
+  </si>
+  <si>
+    <t>For an old facility it was ok. But simple improvements would help. Only one chair for sitting and we were a couple. Bathroom very cramped for people of size. Found a pair of men's briefs stuck behind the bathroom door. No mat for the tub and the tub was very small. Maid forgot to have new soap when she stocked the room after cleaning. Bedside lights could be lower on the wall. + comments. Very quiet for a busy street. Good TV.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r407266766-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>407266766</t>
+  </si>
+  <si>
+    <t>08/18/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r405502887-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>405502887</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>NICE COMFY PLACE FOR THE PRICE</t>
+  </si>
+  <si>
+    <t>We came in on July 30, 2016 after a long day driving through LA traffic.  We found the check-in very easy and a very happy, personable and welcoming staff.  The room was pretty average budget type, well lit and very clean and nicely furnished w/mini fridge, microwave and coffee maker.  Since we had other plans for breakfast, I can't comment on the continental breakfast.  We had plans to stay here for 2 nights.  We did not ask, need or expect the staff (housekeeping) to come in and tidy up or change the bedding and towels after the first night, but they did anyway.  Super!!This motel is not a Holiday Inn by any means, but we were very satisfied with everything and highly recommend it for those travelers concerned about budgets.  There are several quick food establishments within easy walking distance (safe also) and quite a bit more shopping with just a short drive in most any direction.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>We came in on July 30, 2016 after a long day driving through LA traffic.  We found the check-in very easy and a very happy, personable and welcoming staff.  The room was pretty average budget type, well lit and very clean and nicely furnished w/mini fridge, microwave and coffee maker.  Since we had other plans for breakfast, I can't comment on the continental breakfast.  We had plans to stay here for 2 nights.  We did not ask, need or expect the staff (housekeeping) to come in and tidy up or change the bedding and towels after the first night, but they did anyway.  Super!!This motel is not a Holiday Inn by any means, but we were very satisfied with everything and highly recommend it for those travelers concerned about budgets.  There are several quick food establishments within easy walking distance (safe also) and quite a bit more shopping with just a short drive in most any direction.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r395998169-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>395998169</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>A quite place to stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A very friendly place to stay. Check in was fast and easy, I like that you can park in front of your room.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r395832436-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>395832436</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded August 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r395137659-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>395137659</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>Business Trip to Brea</t>
+  </si>
+  <si>
+    <t>This hotel had clean rooms and facilities.  Very near downtown Brea for shopping.  My stay was for business, so I only needed a place to sleep at night.  When housekeeping would come in during the day, the AC got turned off and I always returned to a hot room.  Breakfast was somewhat sparse - cereal and toast - but that was fine with me. MoreShow less</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded July 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2016</t>
+  </si>
+  <si>
+    <t>This hotel had clean rooms and facilities.  Very near downtown Brea for shopping.  My stay was for business, so I only needed a place to sleep at night.  When housekeeping would come in during the day, the AC got turned off and I always returned to a hot room.  Breakfast was somewhat sparse - cereal and toast - but that was fine with me. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r383830571-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>383830571</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t>Clean,  budget friendly,  accommodates elderly, nice staff, parking good</t>
+  </si>
+  <si>
+    <t>This little place served our needs to a "t".  It was clean, parking right in front, very accommodating for elderly and nice staff.  Nothing fancy, but all we needed for a pleasant stay.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r382523320-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>382523320</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded June 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r375950808-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>375950808</t>
+  </si>
+  <si>
+    <t>05/23/2016</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded May 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r363658155-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>363658155</t>
+  </si>
+  <si>
+    <t>04/12/2016</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r362170811-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>362170811</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded April 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r353857864-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>353857864</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>Internet verrrrry slow</t>
+  </si>
+  <si>
+    <t>Internet verrrrry slow. Internet was so slow I'd have to stopping in between and wait extra minutes to load. It is overly slow.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded March 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2016</t>
+  </si>
+  <si>
+    <t>Internet verrrrry slow. Internet was so slow I'd have to stopping in between and wait extra minutes to load. It is overly slow.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r349795693-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>349795693</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t>Have  Stayed there a few times and have found it clean comfortable</t>
+  </si>
+  <si>
+    <t>Though it is an older Hotel the rooms are clean and comfortable and the management very pleasant and helpful and the price reasonable,  the Continental Breakfast is a little lacking.  It is not far from Disneyland and is a heck of a lot quieter and more affordable than the ones close to Disneyland</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r348478055-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>348478055</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Great place, great location, cool staff</t>
+  </si>
+  <si>
+    <t>The room is pretty basic but it met or exceeded my expectations for cleanliness. I'll sure be back if I am in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r336521157-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>336521157</t>
+  </si>
+  <si>
+    <t>01/01/2016</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r335467567-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>335467567</t>
+  </si>
+  <si>
+    <t>12/28/2015</t>
+  </si>
+  <si>
+    <t>Room was clean.  Bathroom was clean.   Shower water never...</t>
+  </si>
+  <si>
+    <t>Room was clean.  Bathroom was clean.   Shower water never got more than lukewarm. ADA shower ran water all over bathroom floor. Not enough towels. No washcloths.  Heater was very loud and interrupted sleep.  Breakfast was poor quality. We were not late for the hours of serving. There should have been more available.  We will not stay there again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded December 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2015</t>
+  </si>
+  <si>
+    <t>Room was clean.  Bathroom was clean.   Shower water never got more than lukewarm. ADA shower ran water all over bathroom floor. Not enough towels. No washcloths.  Heater was very loud and interrupted sleep.  Breakfast was poor quality. We were not late for the hours of serving. There should have been more available.  We will not stay there again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r334445615-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>334445615</t>
+  </si>
+  <si>
+    <t>12/22/2015</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded December 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r331129846-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>331129846</t>
+  </si>
+  <si>
+    <t>12/06/2015</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded December 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r317400243-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>317400243</t>
+  </si>
+  <si>
+    <t>10/09/2015</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r314150406-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>314150406</t>
+  </si>
+  <si>
+    <t>09/27/2015</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r303249572-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>303249572</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>nice accommodation for good price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is the second time I've stayed at this hotel. It's staff is friendly, even at 11pm when we arrive late. The rooms are nice, not fancy but nice. The only request I'd make is for a little more of a continental breakfast.  </t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r295147755-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>295147755</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>Wouldn't recommend</t>
+  </si>
+  <si>
+    <t>I got there late and was treated ok but when I walked into the room there was a very strong smell of urine.  The room appeared to be clean but in the morning you could see the big spots on the carpet and the smell was irritating.  To check out there was no one at the window and some guy came out of another house in front and was very rude as if I was interrupting him.  I would not recommend at all.   MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2015</t>
+  </si>
+  <si>
+    <t>I got there late and was treated ok but when I walked into the room there was a very strong smell of urine.  The room appeared to be clean but in the morning you could see the big spots on the carpet and the smell was irritating.  To check out there was no one at the window and some guy came out of another house in front and was very rude as if I was interrupting him.  I would not recommend at all.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r293873605-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>293873605</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Poor service</t>
+  </si>
+  <si>
+    <t>Slow check in, there was not one at the front desk. I had to wait for someone to come from one of the rooms to check me in. The room had a dirty carpet, dirty bathroom. Motel 6 has a better price and better looking rooms. MoreShow less</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded July 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2015</t>
+  </si>
+  <si>
+    <t>Slow check in, there was not one at the front desk. I had to wait for someone to come from one of the rooms to check me in. The room had a dirty carpet, dirty bathroom. Motel 6 has a better price and better looking rooms. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r291972291-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>291972291</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>My stay</t>
+  </si>
+  <si>
+    <t>Clean room and comfortable stay. The only bad thing was that the room was hot but after 20 min with the AC on high it was all good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r288714652-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>288714652</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>relaxing</t>
+  </si>
+  <si>
+    <t>The service was good and the location was very close to where I needed to be.I also liked the closeness and variety of places to shop in the immediate area.The room was nice, everything I needed was there. The bed was amazing!!!  :) I have a very bad back and got an excellent nights sleep, that was wonderful and unexpected! My only complaint was the bath soap left my skin feeling dry and waxy.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r288036605-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>288036605</t>
+  </si>
+  <si>
+    <t>07/11/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warning!! Always ask for a receipt! </t>
+  </si>
+  <si>
+    <t>At the last minute we had to bring an extra child with us. When I checked in, they counted the people and the manager never told me there would be or will be an extra person charge. I asked for the receipt when I checked out. That's when I noticed that he had charged my credit card for an extra person without  letting me know. He could have notified me at check-in or check-out. I found out on my own on the receipt after. MoreShow less</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded July 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2015</t>
+  </si>
+  <si>
+    <t>At the last minute we had to bring an extra child with us. When I checked in, they counted the people and the manager never told me there would be or will be an extra person charge. I asked for the receipt when I checked out. That's when I noticed that he had charged my credit card for an extra person without  letting me know. He could have notified me at check-in or check-out. I found out on my own on the receipt after. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r287449886-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>287449886</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>Small but nice</t>
+  </si>
+  <si>
+    <t>When we checked in Nick the manager was very nice. It was on one of the main streets. Room was clean and very nice. The bed was a little uncomfortable. When we left I told the manager on duty that possibly the mattress needed to be flipped over and she said she'd let housekeeping know. The continental breakfast was pretty sparse. We only stayed one night because there was no pool and we didn't realize it when we booked 3 nights. Nick was gracious enough to refund us the 2 nights we didn't stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r282498261-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>282498261</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r280728605-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>280728605</t>
+  </si>
+  <si>
+    <t>06/16/2015</t>
+  </si>
+  <si>
+    <t>Newly Remodeled</t>
+  </si>
+  <si>
+    <t>The reviews of this property that I read were good and it did live up to expectations. The owners were nice and checkin was quick. The room was freshly painted, had new sink and fixtures, and was very clean.The neighborhood is also very nice and safe. I have stayed at other hotels nearby and that wasn't the case. The one down side was that the WiFi was extremely slow. I think they need more than one router on the property.  Having good WiFi is very important to me, because I do work on the computer when I am at a room. I hope they work on this issue. I would definitely recommend and stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>The reviews of this property that I read were good and it did live up to expectations. The owners were nice and checkin was quick. The room was freshly painted, had new sink and fixtures, and was very clean.The neighborhood is also very nice and safe. I have stayed at other hotels nearby and that wasn't the case. The one down side was that the WiFi was extremely slow. I think they need more than one router on the property.  Having good WiFi is very important to me, because I do work on the computer when I am at a room. I hope they work on this issue. I would definitely recommend and stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r279942856-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>279942856</t>
+  </si>
+  <si>
+    <t>06/13/2015</t>
+  </si>
+  <si>
+    <t>great place to stay</t>
+  </si>
+  <si>
+    <t>this place was the only place for miles who would accommodate my stay. i needed to check in early in the morning from a long drive and they were able to make that happen, there was a small fee which i didnt mind paying. very clean, quiet, cozy, everything was new. absolutely loved this place and will be staying there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r271696943-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>271696943</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>Better than expected!</t>
+  </si>
+  <si>
+    <t>We arrived late and needed a place to stay.  This place was much better than we expected.  Great location and friendly staff!</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r268710235-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>268710235</t>
+  </si>
+  <si>
+    <t>04/28/2015</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r263992474-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>263992474</t>
+  </si>
+  <si>
+    <t>04/06/2015</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r251556177-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>251556177</t>
+  </si>
+  <si>
+    <t>01/28/2015</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r247421993-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>247421993</t>
+  </si>
+  <si>
+    <t>01/04/2015</t>
+  </si>
+  <si>
+    <t>Perfect for us!</t>
+  </si>
+  <si>
+    <t>We just wanted a place to crash after the Anaheim supercross so I reserved a room here a few months ago. We were not able.to get there before the race and they had no problem with the late check in. The staff were very friendly and helpful at both check in and out. The motel is in downtown Brea in a nice area of a nice town. It is very quiet and clean with comfortable beds, flat screen TV (the cable was messed up according to a nite at the front desk but we didn't see any issues), free wi-fi, hair dryerand coffee pot. It is also close to pretty much anything you need in the way of food and stores. It isn't the Ritz, but I recommend it and will stay there again.sMoreShow less</t>
+  </si>
+  <si>
+    <t>We just wanted a place to crash after the Anaheim supercross so I reserved a room here a few months ago. We were not able.to get there before the race and they had no problem with the late check in. The staff were very friendly and helpful at both check in and out. The motel is in downtown Brea in a nice area of a nice town. It is very quiet and clean with comfortable beds, flat screen TV (the cable was messed up according to a nite at the front desk but we didn't see any issues), free wi-fi, hair dryerand coffee pot. It is also close to pretty much anything you need in the way of food and stores. It isn't the Ritz, but I recommend it and will stay there again.sMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r247265915-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>247265915</t>
+  </si>
+  <si>
+    <t>01/03/2015</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded January 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r245166674-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>245166674</t>
+  </si>
+  <si>
+    <t>12/19/2014</t>
+  </si>
+  <si>
+    <t>a great and reasonably priced place!</t>
+  </si>
+  <si>
+    <t>if you complain about the beds, just bring your own pillows so you are the most comfortable. staying here is always great!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r243556012-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>243556012</t>
+  </si>
+  <si>
+    <t>12/08/2014</t>
+  </si>
+  <si>
+    <t>respite from a sig alert on the freeway</t>
+  </si>
+  <si>
+    <t>Left LAX on Friday afternoon and was heading to Vegas to come home following a business trip. Took the best way possible and still managed to only make it to Brea, CA in over three and a half hours. Traffic was at an absolute stand-still on the 57 and was exhausted following business meetings. The TravelLodge was fantastic, clean, well run with excellent staff. I was able to get a good night's rest and on my way to Vegas first thing the next morning with no traffic.   Thank you Travel Lodge - Brea staff.   Oh and the Italian restaurant across the street was EXCELLENT!  Please recommend to your guests in the future!MoreShow less</t>
+  </si>
+  <si>
+    <t>Left LAX on Friday afternoon and was heading to Vegas to come home following a business trip. Took the best way possible and still managed to only make it to Brea, CA in over three and a half hours. Traffic was at an absolute stand-still on the 57 and was exhausted following business meetings. The TravelLodge was fantastic, clean, well run with excellent staff. I was able to get a good night's rest and on my way to Vegas first thing the next morning with no traffic.   Thank you Travel Lodge - Brea staff.   Oh and the Italian restaurant across the street was EXCELLENT!  Please recommend to your guests in the future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r239171277-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>239171277</t>
+  </si>
+  <si>
+    <t>11/10/2014</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r223182522-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>223182522</t>
+  </si>
+  <si>
+    <t>08/20/2014</t>
+  </si>
+  <si>
+    <t>Satisfaction again!</t>
+  </si>
+  <si>
+    <t>While certainly not a five star hotel we always enjoy an affordable and comfortable stay in clean accommodations at this hotel.  Very nice people own and run this establishment.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r219702677-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>219702677</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Below average breakfast</t>
+  </si>
+  <si>
+    <t>The motel is everything a $80 motel should be, not more and not less. Clean and comfortable. If you chose to stay here because they offer free breakfast you can forget about it. The coffee was awful, the pastry tray was completely empty at 7:30am, I had to ask for milk and got a tiny little plastic cup not even enough for the cereal....I ended up going across the street to a donuts shop.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded August 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2014</t>
+  </si>
+  <si>
+    <t>The motel is everything a $80 motel should be, not more and not less. Clean and comfortable. If you chose to stay here because they offer free breakfast you can forget about it. The coffee was awful, the pastry tray was completely empty at 7:30am, I had to ask for milk and got a tiny little plastic cup not even enough for the cereal....I ended up going across the street to a donuts shop.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r218482031-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>218482031</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded August 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r215600828-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>215600828</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded July 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r214735015-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>214735015</t>
+  </si>
+  <si>
+    <t>07/10/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r214374084-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>214374084</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>My family and I rented 2 rooms over the 4th of July...</t>
+  </si>
+  <si>
+    <t>My family and I rented 2 rooms over the 4th of July holiday.  Both rooms were very clean and quiet, with quality furnishings.  Front desk staff was courteous, prompt and attentive to our needs.  This was our 2nd time staying at this property, and would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r210508863-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>210508863</t>
+  </si>
+  <si>
+    <t>06/15/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r208701106-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>208701106</t>
+  </si>
+  <si>
+    <t>06/03/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded June 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r207146378-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>207146378</t>
+  </si>
+  <si>
+    <t>05/26/2014</t>
+  </si>
+  <si>
+    <t>A Reasonable place to stay</t>
+  </si>
+  <si>
+    <t>The rooms are very clean and well taken care of. There is parking outside of the rooms at this Motel.The only problem encountered was the sound of water when someone in a room next door used the toilet or sink at night.The free breakfast is just enough to 'get-bye'.Overall considering the cost, this is a good place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r204678196-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>204678196</t>
+  </si>
+  <si>
+    <t>05/08/2014</t>
+  </si>
+  <si>
+    <t>A good value.</t>
+  </si>
+  <si>
+    <t>This is our first experience staying at Travelodge.  The owner/operators are most friendly and helpful.  The rooms are small, but very clean and nicely furnished.  The bed was comfortable and we stayed two (2) nights and slept very well both nights.  The continental breakfast is just that.  Very continental.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r203039603-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>203039603</t>
+  </si>
+  <si>
+    <t>04/27/2014</t>
+  </si>
+  <si>
+    <t>A Nice Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a smaller place run by the Owner and his family. They were very gracious in their hospitality and were always glad to see guests. The setting is downtown Brea and there is traffic but the noise seemed inconsequential. I will not hesitate to use this location in the future. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r200531476-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>200531476</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>Great Travel Stay</t>
+  </si>
+  <si>
+    <t>I stayed 3 days and had a wonderful experience.  First was the price:  $58.00 a night.  The rooms were clean and the pillowtop beds were very comfortable,  The owner was very friendly as were all the staff..  The continental breakfast was more than adequate.  I travel to CA at least 3 times a year and will definitely go back to this location close to downtown Brea.  Give this motel a try!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r198198948-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>198198948</t>
+  </si>
+  <si>
+    <t>03/21/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r197262171-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>197262171</t>
+  </si>
+  <si>
+    <t>03/13/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not fancy, but clean comfy rooms and friendly staff. Just what I wanted for the moderate price. Close to downtown. I was brought a coffee maker and fresh ground coffee (every morning), and a non functioning hair dryer was replaced immediately. Overall, a nice stay. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r195484931-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>195484931</t>
+  </si>
+  <si>
+    <t>02/26/2014</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>All was wonderful. I just need another receipt showing I lodged there on Feb 21st.       So I will be coming back again because brea is so beautiful. I reccomend anyone to come to stay here      The clerks were nice &amp; the room was very clean. I loved the nice hot shower &amp; comfy bed.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r193201030-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>193201030</t>
+  </si>
+  <si>
+    <t>02/05/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r192242250-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>192242250</t>
+  </si>
+  <si>
+    <t>01/27/2014</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r190924021-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>190924021</t>
+  </si>
+  <si>
+    <t>01/15/2014</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded January 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r189231590-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>189231590</t>
+  </si>
+  <si>
+    <t>01/01/2014</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r188510770-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>188510770</t>
+  </si>
+  <si>
+    <t>12/25/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r187623520-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>187623520</t>
+  </si>
+  <si>
+    <t>12/14/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r182754354-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>182754354</t>
+  </si>
+  <si>
+    <t>10/28/2013</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r181393605-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>181393605</t>
+  </si>
+  <si>
+    <t>10/17/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r181204157-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>181204157</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>Friendly staff, clean, spacious and affordable good location</t>
+  </si>
+  <si>
+    <t>From reception to cleaners a very friendly approach, the rooms are simple but nicely decorated incl., the bath room, all is clean and close to Fullerton and Brea centers.Breakfast including, but just wrapped cheap Danish and similar coffee, the banana was great though. Have a good stay there, I will be back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r180322949-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>180322949</t>
+  </si>
+  <si>
+    <t>10/09/2013</t>
+  </si>
+  <si>
+    <t>Pathetic service and condition</t>
+  </si>
+  <si>
+    <t>My bed sheet cover and mattress cover were all full of blood stains! I asked the mgr to replace them and he said he didn't have any clean covers!!Also he was very rude and not friendly at all, he didn't even apologize for this and he only said you can leave if you don't like it,No more travelodge in brea and no more travelodge at all. I also didn't appreciate your agent who helped me in this reservation because I told him I am not sure about this motel and he said I assure you this is very good and no problems with it at all.Then immediately after he made the reservation I told him cancel please because I'm not sure yet and he said no I can't do anything now!Just having to leave at 10 pm at night to look for another place to stay was absolutely terrible.Bad service from expedia too very disappointed with your sales agent and your company as a whole for recommending this pig house in Brea,ca.Ayad MansourMoreShow less</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded October 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2013</t>
+  </si>
+  <si>
+    <t>My bed sheet cover and mattress cover were all full of blood stains! I asked the mgr to replace them and he said he didn't have any clean covers!!Also he was very rude and not friendly at all, he didn't even apologize for this and he only said you can leave if you don't like it,No more travelodge in brea and no more travelodge at all. I also didn't appreciate your agent who helped me in this reservation because I told him I am not sure about this motel and he said I assure you this is very good and no problems with it at all.Then immediately after he made the reservation I told him cancel please because I'm not sure yet and he said no I can't do anything now!Just having to leave at 10 pm at night to look for another place to stay was absolutely terrible.Bad service from expedia too very disappointed with your sales agent and your company as a whole for recommending this pig house in Brea,ca.Ayad MansourMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r180189323-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>180189323</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r179262171-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>179262171</t>
+  </si>
+  <si>
+    <t>09/30/2013</t>
+  </si>
+  <si>
+    <t>A GEM of a motel</t>
+  </si>
+  <si>
+    <t>What a surprise!  I knew it had good ratings from others but I was still surprised when I arrived.  You park right in front of your door--just like they did in the '50s but it ain't your grandad's 1950's motel.  A very nice, clean property with rooms that look like they were rehabbed last week!  Very courteous staff.  Many nice little touches like plug ins up on the wall where you can get to them.  Granite counter tops--sink, end tables by the bed and dresser.  You will enjoy your stay!  MR from MO</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r171090471-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>171090471</t>
+  </si>
+  <si>
+    <t>08/06/2013</t>
+  </si>
+  <si>
+    <t>The queen bed was more like the size of a double bed. I...</t>
+  </si>
+  <si>
+    <t>The queen bed was more like the size of a double bed. I asked about this at the front desk thinking I'd accidentally been put in a room with a double, and was told that all the beds in all the rooms were queen size. The facility was clean but not very quiet. Could hear when people in the next room took a shower or laughed loudly. You can only have one device at a time logged into the wifi.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded August 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2013</t>
+  </si>
+  <si>
+    <t>The queen bed was more like the size of a double bed. I asked about this at the front desk thinking I'd accidentally been put in a room with a double, and was told that all the beds in all the rooms were queen size. The facility was clean but not very quiet. Could hear when people in the next room took a shower or laughed loudly. You can only have one device at a time logged into the wifi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r170648459-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>170648459</t>
+  </si>
+  <si>
+    <t>08/03/2013</t>
+  </si>
+  <si>
+    <t>Budget accommodations, helpful staff</t>
+  </si>
+  <si>
+    <t>If you're not wealthy but need to visit Orange County, this motel might suit your needs. Travelodge Brea used to be the Twin Palms and has been remodeled and given a warm, bright yellow paint job. We chose it because it was the least expensive option in the North OC area that did not look like a dive. You'll have to decide which pros and cons are important to you. We stayed more than a week.
+Best features: Helpful staff
+Worst feature: Parking
+Location - easy access to shopping, food, movies, etc.
+Management - Family-run. Very helpful and accommodating. I found it really hard on my back to sleep on the pillow-top mattress (too soft for me), and the manager quickly switched us to what he said was the only room with a firmer mattress. 
+Rooms - Clean, comfortable for the most part. Most mattresses have pillow-top. Air conditioner worked very well.
+Structure - Doors did not seem to fit the door frames. We had to slam ours shut to get it to close and, judging by the noise of other guests slamming doors, it's a motel-wide issue. Locking the door also required some hefty pushing or pressing. Also, when we changed rooms, our new room had some structural problems: the door could not be opened all the way without getting stuck -- really stuck; the floor was uneven and you could feel hollowed areas beneath the carpet as if...If you're not wealthy but need to visit Orange County, this motel might suit your needs. Travelodge Brea used to be the Twin Palms and has been remodeled and given a warm, bright yellow paint job. We chose it because it was the least expensive option in the North OC area that did not look like a dive. You'll have to decide which pros and cons are important to you. We stayed more than a week.Best features: Helpful staffWorst feature: ParkingLocation - easy access to shopping, food, movies, etc.Management - Family-run. Very helpful and accommodating. I found it really hard on my back to sleep on the pillow-top mattress (too soft for me), and the manager quickly switched us to what he said was the only room with a firmer mattress. Rooms - Clean, comfortable for the most part. Most mattresses have pillow-top. Air conditioner worked very well.Structure - Doors did not seem to fit the door frames. We had to slam ours shut to get it to close and, judging by the noise of other guests slamming doors, it's a motel-wide issue. Locking the door also required some hefty pushing or pressing. Also, when we changed rooms, our new room had some structural problems: the door could not be opened all the way without getting stuck -- really stuck; the floor was uneven and you could feel hollowed areas beneath the carpet as if it had been laid over bare concrete without a cushion.Parking - Very difficult to maneuver around the parking area. We lived in fear of our tiny hybrid being rammed by a behemoth SUV because there really wasn't enough room for turning into the spots properly. In fact, on a few occasions we were not able to pull into the spot in front of our room because other guests had pulled in crooked, taking up some of the space. The problem is that there is an enormous house right in the middle of the property, perhaps where there used to be a swimming pool? It's just too big to allow for easy maneuvering around the property.Noise: Fairly quiet at night, except for the sounds of doors slamming because of the door frame issue.Towels: Few and thin. Extra towels were provided on request.Breakfast - Breakfast is over by 9 or 9:30 am! (Can't remember which, but that is too early for me!)Miscellaneous - TV was fine, but the remote took 3-4 seconds to change each channel. The digital alarm clock kept time fine, but the lighted display had some problems. I was confused to see that it was 11:93 one morning!Amenities - Great ice machine operates with your room card. I was munching ice all week, and it did not have that chlorinated OC water taste.All in all, this place had multiple niggling issues, but for the price I'd put up with them and stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>If you're not wealthy but need to visit Orange County, this motel might suit your needs. Travelodge Brea used to be the Twin Palms and has been remodeled and given a warm, bright yellow paint job. We chose it because it was the least expensive option in the North OC area that did not look like a dive. You'll have to decide which pros and cons are important to you. We stayed more than a week.
+Best features: Helpful staff
+Worst feature: Parking
+Location - easy access to shopping, food, movies, etc.
+Management - Family-run. Very helpful and accommodating. I found it really hard on my back to sleep on the pillow-top mattress (too soft for me), and the manager quickly switched us to what he said was the only room with a firmer mattress. 
+Rooms - Clean, comfortable for the most part. Most mattresses have pillow-top. Air conditioner worked very well.
+Structure - Doors did not seem to fit the door frames. We had to slam ours shut to get it to close and, judging by the noise of other guests slamming doors, it's a motel-wide issue. Locking the door also required some hefty pushing or pressing. Also, when we changed rooms, our new room had some structural problems: the door could not be opened all the way without getting stuck -- really stuck; the floor was uneven and you could feel hollowed areas beneath the carpet as if...If you're not wealthy but need to visit Orange County, this motel might suit your needs. Travelodge Brea used to be the Twin Palms and has been remodeled and given a warm, bright yellow paint job. We chose it because it was the least expensive option in the North OC area that did not look like a dive. You'll have to decide which pros and cons are important to you. We stayed more than a week.Best features: Helpful staffWorst feature: ParkingLocation - easy access to shopping, food, movies, etc.Management - Family-run. Very helpful and accommodating. I found it really hard on my back to sleep on the pillow-top mattress (too soft for me), and the manager quickly switched us to what he said was the only room with a firmer mattress. Rooms - Clean, comfortable for the most part. Most mattresses have pillow-top. Air conditioner worked very well.Structure - Doors did not seem to fit the door frames. We had to slam ours shut to get it to close and, judging by the noise of other guests slamming doors, it's a motel-wide issue. Locking the door also required some hefty pushing or pressing. Also, when we changed rooms, our new room had some structural problems: the door could not be opened all the way without getting stuck -- really stuck; the floor was uneven and you could feel hollowed areas beneath the carpet as if it had been laid over bare concrete without a cushion.Parking - Very difficult to maneuver around the parking area. We lived in fear of our tiny hybrid being rammed by a behemoth SUV because there really wasn't enough room for turning into the spots properly. In fact, on a few occasions we were not able to pull into the spot in front of our room because other guests had pulled in crooked, taking up some of the space. The problem is that there is an enormous house right in the middle of the property, perhaps where there used to be a swimming pool? It's just too big to allow for easy maneuvering around the property.Noise: Fairly quiet at night, except for the sounds of doors slamming because of the door frame issue.Towels: Few and thin. Extra towels were provided on request.Breakfast - Breakfast is over by 9 or 9:30 am! (Can't remember which, but that is too early for me!)Miscellaneous - TV was fine, but the remote took 3-4 seconds to change each channel. The digital alarm clock kept time fine, but the lighted display had some problems. I was confused to see that it was 11:93 one morning!Amenities - Great ice machine operates with your room card. I was munching ice all week, and it did not have that chlorinated OC water taste.All in all, this place had multiple niggling issues, but for the price I'd put up with them and stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r170623179-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>170623179</t>
+  </si>
+  <si>
+    <t>Excellent Value</t>
+  </si>
+  <si>
+    <t>The nicest Travelodge I've stayed at. Everything in my room was new including dresser, flatscreen TV, fridge, and microwave. The room was also equipped with a desk and wi-fi which was perfect. A great deal for orange county and on top of that it's close to downtown Brea. I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r168636119-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>168636119</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r167730776-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>167730776</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r167053583-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>167053583</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r164639829-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>164639829</t>
+  </si>
+  <si>
+    <t>06/20/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r162827612-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>162827612</t>
+  </si>
+  <si>
+    <t>06/03/2013</t>
+  </si>
+  <si>
+    <t>great value</t>
+  </si>
+  <si>
+    <t>Just a basic and standard room.  Very clean (most important criteria for me).  Has small fridge and microwave.  The only slight negative – the wall mounted a/c unit is a bit loud when operating.  Good location, a mile away from quaint downtown Brea.  Otherwise, great value for price.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r161243960-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>161243960</t>
+  </si>
+  <si>
+    <t>05/20/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r156009772-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>156009772</t>
+  </si>
+  <si>
+    <t>03/29/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded April 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r155754163-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>155754163</t>
+  </si>
+  <si>
+    <t>03/26/2013</t>
+  </si>
+  <si>
+    <t>Access to our room was across a dirt construction area.  It will be beautiful when it is finished, but not on the weekend of the 23rd.  However, the staff helped with our bags going in and the room was great.  It appears that the rooms are totally rebuilt, floor to ceiling, wall to wall.  Very quiet except for the bathroom fan and the under-the-window AC unit.  Not all buttons on the universal TV remote had been programmed, but we did not use the TV much. Breakfast was the usual for Travelodge, just pastries, dry cereal, fruit and coffee.  The eating area is very small, so no room for waffles.  The free internet was good.  I would stay there again once the paving is done.MoreShow less</t>
+  </si>
+  <si>
+    <t>Access to our room was across a dirt construction area.  It will be beautiful when it is finished, but not on the weekend of the 23rd.  However, the staff helped with our bags going in and the room was great.  It appears that the rooms are totally rebuilt, floor to ceiling, wall to wall.  Very quiet except for the bathroom fan and the under-the-window AC unit.  Not all buttons on the universal TV remote had been programmed, but we did not use the TV much. Breakfast was the usual for Travelodge, just pastries, dry cereal, fruit and coffee.  The eating area is very small, so no room for waffles.  The free internet was good.  I would stay there again once the paving is done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r155624930-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>155624930</t>
+  </si>
+  <si>
+    <t>03/25/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r155030015-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>155030015</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded March 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r154309054-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>154309054</t>
+  </si>
+  <si>
+    <t>03/11/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r153542047-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>153542047</t>
+  </si>
+  <si>
+    <t>03/02/2013</t>
+  </si>
+  <si>
+    <t>Great value and very good service.</t>
+  </si>
+  <si>
+    <t>We stayed here during our trip for Disneyland for 3 nights in February. Facility is about 15 minutes drive from Disney, so it was very convenient. We enjoyed our stay, service was good and had free WiFi. Facility is  well maintained and staff is also co-operative. I would definitely recommend it. Great value and good service.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r150460868-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>150460868</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>Great value stay</t>
+  </si>
+  <si>
+    <t>We stayed at this motel for 3 nights.  Negative: sometimes we can hear conversation from the adjacent room, or some minor traffic noise.  But those noise did not prevent us from having good sleeps and I am a difficult person to fall into sleep.  The room is clean, has flat screen TV, free wifi internet, microwave and small refrigerator.  The owners live on the premise, and they are nice people.  The Brea area is beautiful, and safe.  We could exercise at the YMCA 10 minutes away.  Grocery is nearby too.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>twinpalmsmotel, General Manager at Travelodge by Wyndham Brea, responded to this reviewResponded February 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2013</t>
+  </si>
+  <si>
+    <t>We stayed at this motel for 3 nights.  Negative: sometimes we can hear conversation from the adjacent room, or some minor traffic noise.  But those noise did not prevent us from having good sleeps and I am a difficult person to fall into sleep.  The room is clean, has flat screen TV, free wifi internet, microwave and small refrigerator.  The owners live on the premise, and they are nice people.  The Brea area is beautiful, and safe.  We could exercise at the YMCA 10 minutes away.  Grocery is nearby too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r144267978-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>144267978</t>
+  </si>
+  <si>
+    <t>11/01/2012</t>
+  </si>
+  <si>
+    <t>Great place!!</t>
+  </si>
+  <si>
+    <t>Great place to stay! flat screen TV, a granite countertops and more in the remodeled rooms. In my opinion better than a lot of hotels that I've stayed at. Room service was timely and good and rooms came with fridge and  microwave at no cost compared to hotels. The owners are good people and service was always good when needed.The locations was also great too, close to plenty of shopping and dining, also last but not not least the price was the best in the area!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Great place to stay! flat screen TV, a granite countertops and more in the remodeled rooms. In my opinion better than a lot of hotels that I've stayed at. Room service was timely and good and rooms came with fridge and  microwave at no cost compared to hotels. The owners are good people and service was always good when needed.The locations was also great too, close to plenty of shopping and dining, also last but not not least the price was the best in the area!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r143901242-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>143901242</t>
+  </si>
+  <si>
+    <t>10/28/2012</t>
+  </si>
+  <si>
+    <t>Pretty good</t>
+  </si>
+  <si>
+    <t>My husband and I found this motel on TripAdvisor and were overall pleased with our stay there. It was extremely affordable compared with the place where we were originally planning to stay. Although it's a modest establishment, our room was spotless and had everything we needed, including a microwave and fridge. The room was spacious enough for us to have places for our suitcases and other possessions without having to trip over them. The proprietors were courteous and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I found this motel on TripAdvisor and were overall pleased with our stay there. It was extremely affordable compared with the place where we were originally planning to stay. Although it's a modest establishment, our room was spotless and had everything we needed, including a microwave and fridge. The room was spacious enough for us to have places for our suitcases and other possessions without having to trip over them. The proprietors were courteous and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r125049374-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>125049374</t>
+  </si>
+  <si>
+    <t>02/22/2012</t>
+  </si>
+  <si>
+    <t>Much nicer than the average motel</t>
+  </si>
+  <si>
+    <t>Our room (109) had been recently remodeled and was spotless.  When we requested a coffee pot, it was delivered promptly and cheerfully.  When we commented on the citrus trees located on the property, the manager picked a couple of tangerines and gave them to us.  I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r124647413-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>124647413</t>
+  </si>
+  <si>
+    <t>02/15/2012</t>
+  </si>
+  <si>
+    <t>Okay Place But With Problems</t>
+  </si>
+  <si>
+    <t>Stayed here for one night.  Two problems:  1) The door to the room isn`t fully insulated and soyou can very clearly hear the slamming doors of the cars parking in the lot so that kept waking me up at night.   2) The t.v. is bolted to the wall and so it`s uncomfortable to look at.  I wish these motels wouldn`t do this.   Otherwise, an okay place, probably a lot better than others.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r122247486-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>122247486</t>
+  </si>
+  <si>
+    <t>12/29/2011</t>
+  </si>
+  <si>
+    <t>Save money when you visit Disney</t>
+  </si>
+  <si>
+    <t>I've seen this row of motels a number of times. I chose Twin Palms because a pre-room check showed it to be very clean. The owners, including friendly Nick, live on the property in the middle of the complex in a nice house that gives a homey feel to the place . . . right across the street is Kimmie's breakfast restaurant &amp; you can walk down the street to a local burger joint, a park, and a little bit further to Downtown Brea and the brand new Farrel's Ice Cream Parlor. The area is nice and safe, and though it's about 30 minutes from Disneyland, you will save a lot of money and be in a peaceful yet conveniently located spot. I'd stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>I've seen this row of motels a number of times. I chose Twin Palms because a pre-room check showed it to be very clean. The owners, including friendly Nick, live on the property in the middle of the complex in a nice house that gives a homey feel to the place . . . right across the street is Kimmie's breakfast restaurant &amp; you can walk down the street to a local burger joint, a park, and a little bit further to Downtown Brea and the brand new Farrel's Ice Cream Parlor. The area is nice and safe, and though it's about 30 minutes from Disneyland, you will save a lot of money and be in a peaceful yet conveniently located spot. I'd stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r81401200-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>81401200</t>
+  </si>
+  <si>
+    <t>09/28/2010</t>
+  </si>
+  <si>
+    <t>Friendly hotel management</t>
+  </si>
+  <si>
+    <t>The management is very helpful on forwarding all my INS/Hospital mails while I was temporarily relocated to Brea. Highly recommendedSam T</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r62613381-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>62613381</t>
+  </si>
+  <si>
+    <t>04/27/2010</t>
+  </si>
+  <si>
+    <t>A Gem In The Rough</t>
+  </si>
+  <si>
+    <t>My fiance and I have stayed there a number of times because of the price and the location. We initially went there because of a bad experience with The Big A motel in Orange..&lt;I wrote a review on them here&gt;. I say a gem in the rough because they are remodeling and doing a fantastic job. It is a motel and not the Ritz-Carlton but the folks who run it are really nice, very attentive, and it is in a great location on the Fullerton/Brea border. Also, the prices are reasonable and since i love to cook, they have some kitchen units. If you are staying for a week on business or leisure and you don't have the bankroll of a sheik, I totally recommend this place. Plus, as a muscian, Guitar Center was three blocks away and a great pastrami sandwich place is less than two blocks away. Downtown Brea , which is really cool because of the Improv and the "neon district" is five minutes by car.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>nikpat9176, Manager at Travelodge by Wyndham Brea, responded to this reviewResponded April 30, 2010</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2010</t>
+  </si>
+  <si>
+    <t>My fiance and I have stayed there a number of times because of the price and the location. We initially went there because of a bad experience with The Big A motel in Orange..&lt;I wrote a review on them here&gt;. I say a gem in the rough because they are remodeling and doing a fantastic job. It is a motel and not the Ritz-Carlton but the folks who run it are really nice, very attentive, and it is in a great location on the Fullerton/Brea border. Also, the prices are reasonable and since i love to cook, they have some kitchen units. If you are staying for a week on business or leisure and you don't have the bankroll of a sheik, I totally recommend this place. Plus, as a muscian, Guitar Center was three blocks away and a great pastrami sandwich place is less than two blocks away. Downtown Brea , which is really cool because of the Improv and the "neon district" is five minutes by car.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2604,7749 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>101</v>
+      </c>
+      <c r="X10" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>129</v>
+      </c>
+      <c r="X14" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>128</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>143</v>
+      </c>
+      <c r="O17" t="s">
+        <v>144</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" t="s">
+        <v>149</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" t="s">
+        <v>144</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>151</v>
+      </c>
+      <c r="X18" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>150</v>
+      </c>
+      <c r="O19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>151</v>
+      </c>
+      <c r="X19" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>150</v>
+      </c>
+      <c r="O20" t="s">
+        <v>144</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>160</v>
+      </c>
+      <c r="J21" t="s">
+        <v>161</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>162</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>164</v>
+      </c>
+      <c r="J22" t="s">
+        <v>165</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>166</v>
+      </c>
+      <c r="O22" t="s">
+        <v>97</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>168</v>
+      </c>
+      <c r="J23" t="s">
+        <v>169</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s">
+        <v>70</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>170</v>
+      </c>
+      <c r="O23" t="s">
+        <v>144</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>171</v>
+      </c>
+      <c r="X23" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>174</v>
+      </c>
+      <c r="J24" t="s">
+        <v>175</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>170</v>
+      </c>
+      <c r="O24" t="s">
+        <v>97</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>177</v>
+      </c>
+      <c r="J25" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" t="s">
+        <v>179</v>
+      </c>
+      <c r="L25" t="s">
+        <v>180</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>182</v>
+      </c>
+      <c r="J26" t="s">
+        <v>183</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>170</v>
+      </c>
+      <c r="O26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>185</v>
+      </c>
+      <c r="J27" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" t="s">
+        <v>187</v>
+      </c>
+      <c r="L27" t="s">
+        <v>188</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>170</v>
+      </c>
+      <c r="O27" t="s">
+        <v>97</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>189</v>
+      </c>
+      <c r="X27" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>192</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>193</v>
+      </c>
+      <c r="J28" t="s">
+        <v>194</v>
+      </c>
+      <c r="K28" t="s">
+        <v>195</v>
+      </c>
+      <c r="L28" t="s">
+        <v>196</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>197</v>
+      </c>
+      <c r="O28" t="s">
+        <v>144</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>198</v>
+      </c>
+      <c r="X28" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>202</v>
+      </c>
+      <c r="J29" t="s">
+        <v>203</v>
+      </c>
+      <c r="K29" t="s">
+        <v>204</v>
+      </c>
+      <c r="L29" t="s">
+        <v>205</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>206</v>
+      </c>
+      <c r="O29" t="s">
+        <v>97</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>208</v>
+      </c>
+      <c r="J30" t="s">
+        <v>209</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s">
+        <v>70</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>210</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>211</v>
+      </c>
+      <c r="X30" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>214</v>
+      </c>
+      <c r="J31" t="s">
+        <v>215</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s">
+        <v>70</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>210</v>
+      </c>
+      <c r="O31" t="s">
+        <v>144</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>216</v>
+      </c>
+      <c r="X31" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>218</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>219</v>
+      </c>
+      <c r="J32" t="s">
+        <v>220</v>
+      </c>
+      <c r="K32" t="s">
+        <v>221</v>
+      </c>
+      <c r="L32" t="s">
+        <v>222</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>223</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>224</v>
+      </c>
+      <c r="X32" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>227</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>228</v>
+      </c>
+      <c r="J33" t="s">
+        <v>229</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>223</v>
+      </c>
+      <c r="O33" t="s">
+        <v>144</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>230</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>231</v>
+      </c>
+      <c r="J34" t="s">
+        <v>232</v>
+      </c>
+      <c r="K34" t="s">
+        <v>233</v>
+      </c>
+      <c r="L34" t="s">
+        <v>234</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>235</v>
+      </c>
+      <c r="O34" t="s">
+        <v>144</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>237</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>238</v>
+      </c>
+      <c r="J35" t="s">
+        <v>239</v>
+      </c>
+      <c r="K35" t="s">
+        <v>240</v>
+      </c>
+      <c r="L35" t="s">
+        <v>241</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>235</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>242</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>243</v>
+      </c>
+      <c r="J36" t="s">
+        <v>239</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s">
+        <v>70</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>235</v>
+      </c>
+      <c r="O36" t="s">
+        <v>97</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>244</v>
+      </c>
+      <c r="X36" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>246</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>247</v>
+      </c>
+      <c r="J37" t="s">
+        <v>248</v>
+      </c>
+      <c r="K37" t="s">
+        <v>249</v>
+      </c>
+      <c r="L37" t="s">
+        <v>250</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>235</v>
+      </c>
+      <c r="O37" t="s">
+        <v>97</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>251</v>
+      </c>
+      <c r="X37" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>254</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>255</v>
+      </c>
+      <c r="J38" t="s">
+        <v>256</v>
+      </c>
+      <c r="K38" t="s">
+        <v>257</v>
+      </c>
+      <c r="L38" t="s">
+        <v>258</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>259</v>
+      </c>
+      <c r="O38" t="s">
+        <v>72</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>260</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>261</v>
+      </c>
+      <c r="J39" t="s">
+        <v>262</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s">
+        <v>70</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>259</v>
+      </c>
+      <c r="O39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>263</v>
+      </c>
+      <c r="X39" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>265</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>266</v>
+      </c>
+      <c r="J40" t="s">
+        <v>267</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>268</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>269</v>
+      </c>
+      <c r="X40" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>271</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>272</v>
+      </c>
+      <c r="J41" t="s">
+        <v>273</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>274</v>
+      </c>
+      <c r="O41" t="s">
+        <v>72</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>275</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>276</v>
+      </c>
+      <c r="J42" t="s">
+        <v>277</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s">
+        <v>70</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>274</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>278</v>
+      </c>
+      <c r="X42" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>280</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>281</v>
+      </c>
+      <c r="J43" t="s">
+        <v>282</v>
+      </c>
+      <c r="K43" t="s">
+        <v>283</v>
+      </c>
+      <c r="L43" t="s">
+        <v>284</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>285</v>
+      </c>
+      <c r="O43" t="s">
+        <v>97</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>286</v>
+      </c>
+      <c r="X43" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>289</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>290</v>
+      </c>
+      <c r="J44" t="s">
+        <v>291</v>
+      </c>
+      <c r="K44" t="s">
+        <v>292</v>
+      </c>
+      <c r="L44" t="s">
+        <v>293</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>294</v>
+      </c>
+      <c r="O44" t="s">
+        <v>144</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>295</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>296</v>
+      </c>
+      <c r="J45" t="s">
+        <v>297</v>
+      </c>
+      <c r="K45" t="s">
+        <v>298</v>
+      </c>
+      <c r="L45" t="s">
+        <v>299</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>294</v>
+      </c>
+      <c r="O45" t="s">
+        <v>144</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>300</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>301</v>
+      </c>
+      <c r="J46" t="s">
+        <v>302</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>303</v>
+      </c>
+      <c r="O46" t="s">
+        <v>97</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>304</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>305</v>
+      </c>
+      <c r="J47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K47" t="s">
+        <v>307</v>
+      </c>
+      <c r="L47" t="s">
+        <v>308</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>303</v>
+      </c>
+      <c r="O47" t="s">
+        <v>72</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>309</v>
+      </c>
+      <c r="X47" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>312</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>313</v>
+      </c>
+      <c r="J48" t="s">
+        <v>314</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s">
+        <v>70</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>303</v>
+      </c>
+      <c r="O48" t="s">
+        <v>144</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>315</v>
+      </c>
+      <c r="X48" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>317</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>318</v>
+      </c>
+      <c r="J49" t="s">
+        <v>319</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s">
+        <v>70</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>320</v>
+      </c>
+      <c r="O49" t="s">
+        <v>144</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>321</v>
+      </c>
+      <c r="X49" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>323</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>324</v>
+      </c>
+      <c r="J50" t="s">
+        <v>325</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s">
+        <v>70</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>326</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>327</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>328</v>
+      </c>
+      <c r="J51" t="s">
+        <v>329</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>330</v>
+      </c>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>331</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>332</v>
+      </c>
+      <c r="J52" t="s">
+        <v>333</v>
+      </c>
+      <c r="K52" t="s">
+        <v>334</v>
+      </c>
+      <c r="L52" t="s">
+        <v>335</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>336</v>
+      </c>
+      <c r="O52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>338</v>
+      </c>
+      <c r="J53" t="s">
+        <v>339</v>
+      </c>
+      <c r="K53" t="s">
+        <v>340</v>
+      </c>
+      <c r="L53" t="s">
+        <v>341</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>342</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>343</v>
+      </c>
+      <c r="X53" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>346</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>347</v>
+      </c>
+      <c r="J54" t="s">
+        <v>348</v>
+      </c>
+      <c r="K54" t="s">
+        <v>349</v>
+      </c>
+      <c r="L54" t="s">
+        <v>350</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>342</v>
+      </c>
+      <c r="O54" t="s">
+        <v>144</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>351</v>
+      </c>
+      <c r="X54" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>354</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>355</v>
+      </c>
+      <c r="J55" t="s">
+        <v>356</v>
+      </c>
+      <c r="K55" t="s">
+        <v>357</v>
+      </c>
+      <c r="L55" t="s">
+        <v>358</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>342</v>
+      </c>
+      <c r="O55" t="s">
+        <v>97</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>359</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>360</v>
+      </c>
+      <c r="J56" t="s">
+        <v>361</v>
+      </c>
+      <c r="K56" t="s">
+        <v>362</v>
+      </c>
+      <c r="L56" t="s">
+        <v>363</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>364</v>
+      </c>
+      <c r="O56" t="s">
+        <v>97</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>365</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>366</v>
+      </c>
+      <c r="J57" t="s">
+        <v>367</v>
+      </c>
+      <c r="K57" t="s">
+        <v>368</v>
+      </c>
+      <c r="L57" t="s">
+        <v>369</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>342</v>
+      </c>
+      <c r="O57" t="s">
+        <v>72</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>370</v>
+      </c>
+      <c r="X57" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>373</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>374</v>
+      </c>
+      <c r="J58" t="s">
+        <v>375</v>
+      </c>
+      <c r="K58" t="s">
+        <v>376</v>
+      </c>
+      <c r="L58" t="s">
+        <v>377</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>342</v>
+      </c>
+      <c r="O58" t="s">
+        <v>72</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>378</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>379</v>
+      </c>
+      <c r="J59" t="s">
+        <v>380</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s">
+        <v>70</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>364</v>
+      </c>
+      <c r="O59" t="s">
+        <v>63</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>381</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>382</v>
+      </c>
+      <c r="J60" t="s">
+        <v>383</v>
+      </c>
+      <c r="K60" t="s">
+        <v>384</v>
+      </c>
+      <c r="L60" t="s">
+        <v>385</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>364</v>
+      </c>
+      <c r="O60" t="s">
+        <v>97</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>387</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>388</v>
+      </c>
+      <c r="J61" t="s">
+        <v>389</v>
+      </c>
+      <c r="K61" t="s">
+        <v>390</v>
+      </c>
+      <c r="L61" t="s">
+        <v>391</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>364</v>
+      </c>
+      <c r="O61" t="s">
+        <v>144</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>392</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>393</v>
+      </c>
+      <c r="J62" t="s">
+        <v>394</v>
+      </c>
+      <c r="K62" t="s">
+        <v>395</v>
+      </c>
+      <c r="L62" t="s">
+        <v>396</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>397</v>
+      </c>
+      <c r="O62" t="s">
+        <v>72</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>398</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>399</v>
+      </c>
+      <c r="J63" t="s">
+        <v>400</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>401</v>
+      </c>
+      <c r="O63" t="s">
+        <v>144</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>402</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>403</v>
+      </c>
+      <c r="J64" t="s">
+        <v>404</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>405</v>
+      </c>
+      <c r="O64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>406</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>407</v>
+      </c>
+      <c r="J65" t="s">
+        <v>408</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>409</v>
+      </c>
+      <c r="O65" t="s">
+        <v>97</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>410</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>411</v>
+      </c>
+      <c r="J66" t="s">
+        <v>412</v>
+      </c>
+      <c r="K66" t="s">
+        <v>413</v>
+      </c>
+      <c r="L66" t="s">
+        <v>414</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>416</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>417</v>
+      </c>
+      <c r="J67" t="s">
+        <v>418</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s">
+        <v>70</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>419</v>
+      </c>
+      <c r="O67" t="s">
+        <v>144</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>420</v>
+      </c>
+      <c r="X67" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>422</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>423</v>
+      </c>
+      <c r="J68" t="s">
+        <v>424</v>
+      </c>
+      <c r="K68" t="s">
+        <v>425</v>
+      </c>
+      <c r="L68" t="s">
+        <v>426</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>419</v>
+      </c>
+      <c r="O68" t="s">
+        <v>144</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>427</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>428</v>
+      </c>
+      <c r="J69" t="s">
+        <v>429</v>
+      </c>
+      <c r="K69" t="s">
+        <v>430</v>
+      </c>
+      <c r="L69" t="s">
+        <v>431</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>419</v>
+      </c>
+      <c r="O69" t="s">
+        <v>97</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>433</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>434</v>
+      </c>
+      <c r="J70" t="s">
+        <v>435</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>436</v>
+      </c>
+      <c r="O70" t="s">
+        <v>97</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>437</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>438</v>
+      </c>
+      <c r="J71" t="s">
+        <v>439</v>
+      </c>
+      <c r="K71" t="s">
+        <v>440</v>
+      </c>
+      <c r="L71" t="s">
+        <v>441</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>442</v>
+      </c>
+      <c r="O71" t="s">
+        <v>72</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>443</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>444</v>
+      </c>
+      <c r="J72" t="s">
+        <v>445</v>
+      </c>
+      <c r="K72" t="s">
+        <v>446</v>
+      </c>
+      <c r="L72" t="s">
+        <v>447</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>448</v>
+      </c>
+      <c r="O72" t="s">
+        <v>72</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>449</v>
+      </c>
+      <c r="X72" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>452</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>453</v>
+      </c>
+      <c r="J73" t="s">
+        <v>454</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s">
+        <v>70</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>448</v>
+      </c>
+      <c r="O73" t="s">
+        <v>63</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>455</v>
+      </c>
+      <c r="X73" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>457</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>458</v>
+      </c>
+      <c r="J74" t="s">
+        <v>459</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s">
+        <v>70</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>448</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>460</v>
+      </c>
+      <c r="X74" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>462</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>463</v>
+      </c>
+      <c r="J75" t="s">
+        <v>464</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s"/>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>448</v>
+      </c>
+      <c r="O75" t="s">
+        <v>97</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>465</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>466</v>
+      </c>
+      <c r="J76" t="s">
+        <v>467</v>
+      </c>
+      <c r="K76" t="s">
+        <v>468</v>
+      </c>
+      <c r="L76" t="s">
+        <v>469</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>448</v>
+      </c>
+      <c r="O76" t="s">
+        <v>72</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>470</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>471</v>
+      </c>
+      <c r="J77" t="s">
+        <v>472</v>
+      </c>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s"/>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>473</v>
+      </c>
+      <c r="O77" t="s">
+        <v>97</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>474</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>475</v>
+      </c>
+      <c r="J78" t="s">
+        <v>476</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s">
+        <v>70</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>477</v>
+      </c>
+      <c r="O78" t="s">
+        <v>144</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>478</v>
+      </c>
+      <c r="X78" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>480</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>481</v>
+      </c>
+      <c r="J79" t="s">
+        <v>482</v>
+      </c>
+      <c r="K79" t="s">
+        <v>483</v>
+      </c>
+      <c r="L79" t="s">
+        <v>484</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>477</v>
+      </c>
+      <c r="O79" t="s">
+        <v>63</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>485</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>486</v>
+      </c>
+      <c r="J80" t="s">
+        <v>487</v>
+      </c>
+      <c r="K80" t="s">
+        <v>488</v>
+      </c>
+      <c r="L80" t="s">
+        <v>489</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>490</v>
+      </c>
+      <c r="O80" t="s">
+        <v>144</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>491</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>492</v>
+      </c>
+      <c r="J81" t="s">
+        <v>493</v>
+      </c>
+      <c r="K81" t="s">
+        <v>494</v>
+      </c>
+      <c r="L81" t="s">
+        <v>495</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>490</v>
+      </c>
+      <c r="O81" t="s">
+        <v>97</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>496</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>497</v>
+      </c>
+      <c r="J82" t="s">
+        <v>498</v>
+      </c>
+      <c r="K82" t="s">
+        <v>499</v>
+      </c>
+      <c r="L82" t="s">
+        <v>500</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>490</v>
+      </c>
+      <c r="O82" t="s">
+        <v>72</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>501</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>502</v>
+      </c>
+      <c r="J83" t="s">
+        <v>503</v>
+      </c>
+      <c r="K83" t="s"/>
+      <c r="L83" t="s"/>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>504</v>
+      </c>
+      <c r="O83" t="s">
+        <v>144</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>505</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>506</v>
+      </c>
+      <c r="J84" t="s">
+        <v>507</v>
+      </c>
+      <c r="K84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L84" t="s">
+        <v>508</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>504</v>
+      </c>
+      <c r="O84" t="s">
+        <v>97</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>509</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>510</v>
+      </c>
+      <c r="J85" t="s">
+        <v>511</v>
+      </c>
+      <c r="K85" t="s">
+        <v>512</v>
+      </c>
+      <c r="L85" t="s">
+        <v>513</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>514</v>
+      </c>
+      <c r="O85" t="s">
+        <v>144</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>515</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>516</v>
+      </c>
+      <c r="J86" t="s">
+        <v>517</v>
+      </c>
+      <c r="K86" t="s"/>
+      <c r="L86" t="s"/>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>514</v>
+      </c>
+      <c r="O86" t="s">
+        <v>63</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>518</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>519</v>
+      </c>
+      <c r="J87" t="s">
+        <v>520</v>
+      </c>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s"/>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>521</v>
+      </c>
+      <c r="O87" t="s">
+        <v>72</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>522</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>523</v>
+      </c>
+      <c r="J88" t="s">
+        <v>524</v>
+      </c>
+      <c r="K88" t="s"/>
+      <c r="L88" t="s">
+        <v>70</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>521</v>
+      </c>
+      <c r="O88" t="s">
+        <v>63</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>525</v>
+      </c>
+      <c r="X88" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>527</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>528</v>
+      </c>
+      <c r="J89" t="s">
+        <v>529</v>
+      </c>
+      <c r="K89" t="s"/>
+      <c r="L89" t="s"/>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>530</v>
+      </c>
+      <c r="O89" t="s">
+        <v>72</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>531</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>532</v>
+      </c>
+      <c r="J90" t="s">
+        <v>533</v>
+      </c>
+      <c r="K90" t="s"/>
+      <c r="L90" t="s"/>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>530</v>
+      </c>
+      <c r="O90" t="s">
+        <v>72</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>534</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>535</v>
+      </c>
+      <c r="J91" t="s">
+        <v>536</v>
+      </c>
+      <c r="K91" t="s"/>
+      <c r="L91" t="s"/>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>537</v>
+      </c>
+      <c r="O91" t="s">
+        <v>144</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>538</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>539</v>
+      </c>
+      <c r="J92" t="s">
+        <v>540</v>
+      </c>
+      <c r="K92" t="s"/>
+      <c r="L92" t="s"/>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>541</v>
+      </c>
+      <c r="O92" t="s">
+        <v>72</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>542</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>543</v>
+      </c>
+      <c r="J93" t="s">
+        <v>544</v>
+      </c>
+      <c r="K93" t="s"/>
+      <c r="L93" t="s"/>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>541</v>
+      </c>
+      <c r="O93" t="s">
+        <v>72</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>545</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>546</v>
+      </c>
+      <c r="J94" t="s">
+        <v>547</v>
+      </c>
+      <c r="K94" t="s">
+        <v>548</v>
+      </c>
+      <c r="L94" t="s">
+        <v>549</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>541</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>550</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>551</v>
+      </c>
+      <c r="J95" t="s">
+        <v>552</v>
+      </c>
+      <c r="K95" t="s">
+        <v>553</v>
+      </c>
+      <c r="L95" t="s">
+        <v>554</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>1</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>555</v>
+      </c>
+      <c r="X95" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>558</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>559</v>
+      </c>
+      <c r="J96" t="s">
+        <v>560</v>
+      </c>
+      <c r="K96" t="s"/>
+      <c r="L96" t="s"/>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>561</v>
+      </c>
+      <c r="O96" t="s">
+        <v>97</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>562</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>563</v>
+      </c>
+      <c r="J97" t="s">
+        <v>564</v>
+      </c>
+      <c r="K97" t="s">
+        <v>565</v>
+      </c>
+      <c r="L97" t="s">
+        <v>566</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>561</v>
+      </c>
+      <c r="O97" t="s">
+        <v>97</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>567</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>568</v>
+      </c>
+      <c r="J98" t="s">
+        <v>569</v>
+      </c>
+      <c r="K98" t="s">
+        <v>570</v>
+      </c>
+      <c r="L98" t="s">
+        <v>571</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="s">
+        <v>572</v>
+      </c>
+      <c r="O98" t="s">
+        <v>97</v>
+      </c>
+      <c r="P98" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>573</v>
+      </c>
+      <c r="X98" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>576</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>577</v>
+      </c>
+      <c r="J99" t="s">
+        <v>578</v>
+      </c>
+      <c r="K99" t="s">
+        <v>579</v>
+      </c>
+      <c r="L99" t="s">
+        <v>580</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>581</v>
+      </c>
+      <c r="O99" t="s">
+        <v>144</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>573</v>
+      </c>
+      <c r="X99" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>583</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>584</v>
+      </c>
+      <c r="J100" t="s">
+        <v>578</v>
+      </c>
+      <c r="K100" t="s">
+        <v>585</v>
+      </c>
+      <c r="L100" t="s">
+        <v>586</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>572</v>
+      </c>
+      <c r="O100" t="s">
+        <v>63</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>587</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>588</v>
+      </c>
+      <c r="J101" t="s">
+        <v>589</v>
+      </c>
+      <c r="K101" t="s"/>
+      <c r="L101" t="s"/>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>581</v>
+      </c>
+      <c r="O101" t="s">
+        <v>72</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>590</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>591</v>
+      </c>
+      <c r="J102" t="s">
+        <v>592</v>
+      </c>
+      <c r="K102" t="s"/>
+      <c r="L102" t="s"/>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>581</v>
+      </c>
+      <c r="O102" t="s">
+        <v>97</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>593</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>594</v>
+      </c>
+      <c r="J103" t="s">
+        <v>595</v>
+      </c>
+      <c r="K103" t="s"/>
+      <c r="L103" t="s"/>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>581</v>
+      </c>
+      <c r="O103" t="s">
+        <v>63</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>596</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>597</v>
+      </c>
+      <c r="J104" t="s">
+        <v>598</v>
+      </c>
+      <c r="K104" t="s"/>
+      <c r="L104" t="s"/>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>599</v>
+      </c>
+      <c r="O104" t="s">
+        <v>97</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>600</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>601</v>
+      </c>
+      <c r="J105" t="s">
+        <v>602</v>
+      </c>
+      <c r="K105" t="s">
+        <v>603</v>
+      </c>
+      <c r="L105" t="s">
+        <v>604</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>605</v>
+      </c>
+      <c r="O105" t="s">
+        <v>63</v>
+      </c>
+      <c r="P105" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>606</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>607</v>
+      </c>
+      <c r="J106" t="s">
+        <v>608</v>
+      </c>
+      <c r="K106" t="s"/>
+      <c r="L106" t="s"/>
+      <c r="M106" t="n">
+        <v>3</v>
+      </c>
+      <c r="N106" t="s">
+        <v>605</v>
+      </c>
+      <c r="O106" t="s">
+        <v>63</v>
+      </c>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>3</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>3</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>3</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>609</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>610</v>
+      </c>
+      <c r="J107" t="s">
+        <v>611</v>
+      </c>
+      <c r="K107" t="s"/>
+      <c r="L107" t="s">
+        <v>70</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="s">
+        <v>612</v>
+      </c>
+      <c r="O107" t="s">
+        <v>72</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>3</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>3</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>613</v>
+      </c>
+      <c r="X107" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>615</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>616</v>
+      </c>
+      <c r="J108" t="s">
+        <v>617</v>
+      </c>
+      <c r="K108" t="s">
+        <v>612</v>
+      </c>
+      <c r="L108" t="s">
+        <v>618</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>612</v>
+      </c>
+      <c r="O108" t="s">
+        <v>144</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>620</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>621</v>
+      </c>
+      <c r="J109" t="s">
+        <v>622</v>
+      </c>
+      <c r="K109" t="s"/>
+      <c r="L109" t="s"/>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>612</v>
+      </c>
+      <c r="O109" t="s">
+        <v>144</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>5</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>623</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>624</v>
+      </c>
+      <c r="J110" t="s">
+        <v>625</v>
+      </c>
+      <c r="K110" t="s"/>
+      <c r="L110" t="s">
+        <v>70</v>
+      </c>
+      <c r="M110" t="n">
+        <v>2</v>
+      </c>
+      <c r="N110" t="s">
+        <v>612</v>
+      </c>
+      <c r="O110" t="s">
+        <v>97</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>3</v>
+      </c>
+      <c r="R110" t="n">
+        <v>3</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>626</v>
+      </c>
+      <c r="X110" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>628</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>629</v>
+      </c>
+      <c r="J111" t="s">
+        <v>630</v>
+      </c>
+      <c r="K111" t="s"/>
+      <c r="L111" t="s"/>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>612</v>
+      </c>
+      <c r="O111" t="s">
+        <v>97</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>631</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>632</v>
+      </c>
+      <c r="J112" t="s">
+        <v>633</v>
+      </c>
+      <c r="K112" t="s">
+        <v>634</v>
+      </c>
+      <c r="L112" t="s">
+        <v>635</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s">
+        <v>636</v>
+      </c>
+      <c r="O112" t="s">
+        <v>72</v>
+      </c>
+      <c r="P112" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>5</v>
+      </c>
+      <c r="R112" t="n">
+        <v>4</v>
+      </c>
+      <c r="S112" t="n">
+        <v>5</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>637</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>638</v>
+      </c>
+      <c r="J113" t="s">
+        <v>639</v>
+      </c>
+      <c r="K113" t="s">
+        <v>640</v>
+      </c>
+      <c r="L113" t="s">
+        <v>641</v>
+      </c>
+      <c r="M113" t="n">
+        <v>5</v>
+      </c>
+      <c r="N113" t="s">
+        <v>642</v>
+      </c>
+      <c r="O113" t="s">
+        <v>144</v>
+      </c>
+      <c r="P113" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>4</v>
+      </c>
+      <c r="R113" t="n">
+        <v>5</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>4</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s">
+        <v>643</v>
+      </c>
+      <c r="X113" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>646</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>647</v>
+      </c>
+      <c r="J114" t="s">
+        <v>648</v>
+      </c>
+      <c r="K114" t="s">
+        <v>649</v>
+      </c>
+      <c r="L114" t="s">
+        <v>650</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5</v>
+      </c>
+      <c r="N114" t="s">
+        <v>651</v>
+      </c>
+      <c r="O114" t="s">
+        <v>63</v>
+      </c>
+      <c r="P114" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>5</v>
+      </c>
+      <c r="R114" t="n">
+        <v>5</v>
+      </c>
+      <c r="S114" t="n">
+        <v>5</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>5</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s">
+        <v>643</v>
+      </c>
+      <c r="X114" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>653</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>654</v>
+      </c>
+      <c r="J115" t="s">
+        <v>655</v>
+      </c>
+      <c r="K115" t="s">
+        <v>656</v>
+      </c>
+      <c r="L115" t="s">
+        <v>657</v>
+      </c>
+      <c r="M115" t="n">
+        <v>4</v>
+      </c>
+      <c r="N115" t="s">
+        <v>651</v>
+      </c>
+      <c r="O115" t="s">
+        <v>144</v>
+      </c>
+      <c r="P115" t="s"/>
+      <c r="Q115" t="s"/>
+      <c r="R115" t="s"/>
+      <c r="S115" t="s"/>
+      <c r="T115" t="s"/>
+      <c r="U115" t="s"/>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s">
+        <v>643</v>
+      </c>
+      <c r="X115" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>659</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>660</v>
+      </c>
+      <c r="J116" t="s">
+        <v>661</v>
+      </c>
+      <c r="K116" t="s">
+        <v>662</v>
+      </c>
+      <c r="L116" t="s">
+        <v>663</v>
+      </c>
+      <c r="M116" t="n">
+        <v>4</v>
+      </c>
+      <c r="N116" t="s">
+        <v>664</v>
+      </c>
+      <c r="O116" t="s">
+        <v>144</v>
+      </c>
+      <c r="P116" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>4</v>
+      </c>
+      <c r="R116" t="n">
+        <v>3</v>
+      </c>
+      <c r="S116" t="n">
+        <v>5</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>4</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>665</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>666</v>
+      </c>
+      <c r="J117" t="s">
+        <v>667</v>
+      </c>
+      <c r="K117" t="s">
+        <v>668</v>
+      </c>
+      <c r="L117" t="s">
+        <v>669</v>
+      </c>
+      <c r="M117" t="n">
+        <v>4</v>
+      </c>
+      <c r="N117" t="s">
+        <v>664</v>
+      </c>
+      <c r="O117" t="s">
+        <v>97</v>
+      </c>
+      <c r="P117" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>4</v>
+      </c>
+      <c r="R117" t="n">
+        <v>4</v>
+      </c>
+      <c r="S117" t="n">
+        <v>4</v>
+      </c>
+      <c r="T117" t="s"/>
+      <c r="U117" t="n">
+        <v>4</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s"/>
+      <c r="X117" t="s"/>
+      <c r="Y117" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
+      <c r="D118" t="n">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" t="s">
+        <v>670</v>
+      </c>
+      <c r="G118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" t="s">
+        <v>671</v>
+      </c>
+      <c r="J118" t="s">
+        <v>672</v>
+      </c>
+      <c r="K118" t="s">
+        <v>673</v>
+      </c>
+      <c r="L118" t="s">
+        <v>674</v>
+      </c>
+      <c r="M118" t="n">
+        <v>5</v>
+      </c>
+      <c r="N118" t="s">
+        <v>675</v>
+      </c>
+      <c r="O118" t="s">
+        <v>63</v>
+      </c>
+      <c r="P118" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>4</v>
+      </c>
+      <c r="R118" t="n">
+        <v>5</v>
+      </c>
+      <c r="S118" t="n">
+        <v>5</v>
+      </c>
+      <c r="T118" t="s"/>
+      <c r="U118" t="n">
+        <v>5</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s"/>
+      <c r="X118" t="s"/>
+      <c r="Y118" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B119" t="s"/>
+      <c r="C119" t="s"/>
+      <c r="D119" t="n">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" t="s">
+        <v>677</v>
+      </c>
+      <c r="G119" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" t="s">
+        <v>678</v>
+      </c>
+      <c r="J119" t="s">
+        <v>679</v>
+      </c>
+      <c r="K119" t="s">
+        <v>680</v>
+      </c>
+      <c r="L119" t="s">
+        <v>681</v>
+      </c>
+      <c r="M119" t="n">
+        <v>4</v>
+      </c>
+      <c r="N119" t="s">
+        <v>682</v>
+      </c>
+      <c r="O119" t="s">
+        <v>97</v>
+      </c>
+      <c r="P119" t="s"/>
+      <c r="Q119" t="s"/>
+      <c r="R119" t="s"/>
+      <c r="S119" t="s"/>
+      <c r="T119" t="s"/>
+      <c r="U119" t="s"/>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="s"/>
+      <c r="X119" t="s"/>
+      <c r="Y119" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>47881</v>
+      </c>
+      <c r="B120" t="s"/>
+      <c r="C120" t="s"/>
+      <c r="D120" t="n">
+        <v>119</v>
+      </c>
+      <c r="E120" t="s">
+        <v>44</v>
+      </c>
+      <c r="F120" t="s">
+        <v>683</v>
+      </c>
+      <c r="G120" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" t="s">
+        <v>47</v>
+      </c>
+      <c r="I120" t="s">
+        <v>684</v>
+      </c>
+      <c r="J120" t="s">
+        <v>685</v>
+      </c>
+      <c r="K120" t="s">
+        <v>686</v>
+      </c>
+      <c r="L120" t="s">
+        <v>687</v>
+      </c>
+      <c r="M120" t="n">
+        <v>5</v>
+      </c>
+      <c r="N120" t="s">
+        <v>688</v>
+      </c>
+      <c r="O120" t="s">
+        <v>144</v>
+      </c>
+      <c r="P120" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>4</v>
+      </c>
+      <c r="R120" t="n">
+        <v>5</v>
+      </c>
+      <c r="S120" t="n">
+        <v>4</v>
+      </c>
+      <c r="T120" t="s"/>
+      <c r="U120" t="n">
+        <v>5</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="s">
+        <v>689</v>
+      </c>
+      <c r="X120" t="s">
+        <v>690</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>691</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_785.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_785.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="807">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>ttaylor01</t>
+  </si>
+  <si>
     <t>07/12/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>My reservation was waiting for me when I arrived in the early evening. I was given a room upstairs that was clean, simple but still with some nice features.  Had the appearance of a recent painting and some lighting fixture updating.  Good front desk host people.  Convenient location for Fullerton and N. Orange County.  Not many frills, but I was given what I paid for.  Would stay again.More</t>
   </si>
   <si>
+    <t>tanyavega13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r566704511-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>They put the bare minimum in the room, front desk didn’t provide the wifi password, the guy didn’t even know where my room was located More</t>
   </si>
   <si>
+    <t>John K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r563709262-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Mia S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r553759403-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -258,6 +270,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r549177733-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -276,6 +291,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>seymourr2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r548496903-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t>12/21/2017</t>
   </si>
   <si>
+    <t>michelesL9422AM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r538618644-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t>Responded November 7, 2017</t>
   </si>
   <si>
+    <t>frequentcustomer985</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r538521103-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -312,6 +336,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>P1350QAseanc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r535967163-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -327,6 +354,9 @@
     <t>Responded October 26, 2017</t>
   </si>
   <si>
+    <t>Bernardo A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r526440935-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -354,6 +384,9 @@
     <t>When we walked into the room and turned on the light, there was a spider on one of the beds. The spider JUMPED off the bed and as I was about to step on it, it moved (kinda leaped) very fast across the floor. I cornered it and was able to kill it with my flip-flop. The bedspreads were dirty. Later, we found a cricket in the toilet, though it was dead. The breakfast was "continental", but VERY limited. We would not stay here again for the price we paid for the room, $127.20/night; two nights. That is why we always carry "raid and "lysol" with us on road trips. You have these problems in all types (price wise) of hotels, you never can tell.More</t>
   </si>
   <si>
+    <t>India C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r509202306-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -369,6 +402,9 @@
     <t>Fun and part of the Staycation tour. Bed is comfortable and parking is secure within the travelodge. No issues with wifi, staff or location. Reasonable, clean and offered a serene adventure close to home.</t>
   </si>
   <si>
+    <t>michaelmV9272FJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r506199023-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -387,6 +423,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>susanmV664XB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r498063466-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -414,6 +453,9 @@
     <t>Bed was very uncomfortable, very hard, location of room was very noisy from outside disturbances. Disturbed our sleep or kept us from sleeping. The air conditioning was also very loud. We have stayed here before and didn't have these problems. Also I was charged a fee for booking he room through the internet and is was not disclosed at the time of booking. More</t>
   </si>
   <si>
+    <t>B3597GPjavierc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r497021601-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -429,6 +471,9 @@
     <t>We book for this place at the last minute, and we get our room fast enough to catch some sleep after a day at disneyland. Our room was clean, nice and the bed really cozy. Thanks for the great service!</t>
   </si>
   <si>
+    <t>christopherdJ493YS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r495189235-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -438,6 +483,9 @@
     <t>06/22/2017</t>
   </si>
   <si>
+    <t>leek711</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r486966059-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -453,6 +501,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>claudia012017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r481333601-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -480,12 +531,18 @@
     <t>This is a motel not hotel. If you are a Wyndham rewards member they will not honor the perks. The gentlemen that helped me would not let me check in early nor late as the perks indicate that I am entitled to. The room is small and not very clean. The walls and windows need a wipe down desperately! No kleenex... Only one hand and wash towel... Don't walk barefoot on the floor... The continental breakfast = 1 tiny can of apple and orange juice and bread on my first trip at 6am and on my 2nd trip to see what was offered was 1 more apple and orange juice, 1 bruised banana and 2 apples and bread for toast. What a joke! The internet was weak and the bed was like jello (reminded me of an I  Lucy episode). Now that I've checked out they have charged my card twice for the room. Probably won't be returning.More</t>
   </si>
   <si>
+    <t>jennifergY2478WD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r481308492-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
     <t>481308492</t>
   </si>
   <si>
+    <t>daleh980</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r477466529-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -495,6 +552,9 @@
     <t>04/20/2017</t>
   </si>
   <si>
+    <t>O9190PRbarbaraa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r467441142-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -507,6 +567,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>415lupem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r464116904-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -519,6 +582,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>119ai</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r458766407-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -537,6 +603,9 @@
     <t>Responded February 13, 2017</t>
   </si>
   <si>
+    <t>745craigf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r457747981-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -546,6 +615,9 @@
     <t>02/06/2017</t>
   </si>
   <si>
+    <t>Jamal W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r456882518-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -561,6 +633,9 @@
     <t>This is one of the best Hotels I've been too. The owner and the people who work there are a pleasure to deal with. They are professional and have very good with customer service. They are always willing to accommodate guest in any way they can!!</t>
   </si>
   <si>
+    <t>anthonylY990YI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r455042035-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -570,6 +645,9 @@
     <t>01/26/2017</t>
   </si>
   <si>
+    <t>williamsrobbie21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r453357657-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -594,6 +672,9 @@
     <t>There was a live bug crawling in my bed when I turned back the covers.  They had to change my room late and didn't offer to help me move. I still couldn't sleep well in the other room.Breakfast was just OK but could have had hard boiled eggs for a little protein.More</t>
   </si>
   <si>
+    <t>Paula B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r450514944-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -621,6 +702,9 @@
     <t>Seriously, these ppl act like it's going to kill them to put out a breakfast. You have to come and they bring it out. The milk wasn't good like basically expired. I'll never return to this one...More</t>
   </si>
   <si>
+    <t>Dale K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r434181157-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -639,6 +723,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>B5190MIjohnd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r428171226-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -657,6 +744,9 @@
     <t>Responded October 17, 2016</t>
   </si>
   <si>
+    <t>cindytL2074MQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r426747719-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -672,6 +762,9 @@
     <t>Responded October 12, 2016</t>
   </si>
   <si>
+    <t>458stanleyc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r410675180-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -699,6 +792,9 @@
     <t>For an old facility it was ok. But simple improvements would help. Only one chair for sitting and we were a couple. Bathroom very cramped for people of size. Found a pair of men's briefs stuck behind the bathroom door. No mat for the tub and the tub was very small. Maid forgot to have new soap when she stocked the room after cleaning. Bedside lights could be lower on the wall. + comments. Very quiet for a busy street. Good TV.More</t>
   </si>
   <si>
+    <t>alexandere468</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r407266766-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -708,6 +804,9 @@
     <t>08/18/2016</t>
   </si>
   <si>
+    <t>Lynn M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r405502887-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -744,6 +843,9 @@
     <t xml:space="preserve">A very friendly place to stay. Check in was fast and easy, I like that you can park in front of your room.  </t>
   </si>
   <si>
+    <t>heathmegjohn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r395832436-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -756,6 +858,9 @@
     <t>Responded August 2, 2016</t>
   </si>
   <si>
+    <t>Ronald D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r395137659-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -780,6 +885,9 @@
     <t>This hotel had clean rooms and facilities.  Very near downtown Brea for shopping.  My stay was for business, so I only needed a place to sleep at night.  When housekeeping would come in during the day, the AC got turned off and I always returned to a hot room.  Breakfast was somewhat sparse - cereal and toast - but that was fine with me. More</t>
   </si>
   <si>
+    <t>rnews2u</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r383830571-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -798,6 +906,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>CV-Local</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r382523320-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -813,6 +924,9 @@
     <t>Responded June 15, 2016</t>
   </si>
   <si>
+    <t>suzannes551</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r375950808-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -831,6 +945,9 @@
     <t>Responded May 25, 2016</t>
   </si>
   <si>
+    <t>malcomd55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r363658155-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -843,6 +960,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>405janiceb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r362170811-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -858,6 +978,9 @@
     <t>Responded April 8, 2016</t>
   </si>
   <si>
+    <t>tonylY8618MW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r353857864-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -885,6 +1008,9 @@
     <t>Internet verrrrry slow. Internet was so slow I'd have to stopping in between and wait extra minutes to load. It is overly slow.More</t>
   </si>
   <si>
+    <t>Lloyd M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r349795693-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -903,6 +1029,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>arnoldg108</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r348478055-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -918,6 +1047,9 @@
     <t>The room is pretty basic but it met or exceeded my expectations for cleanliness. I'll sure be back if I am in the area.</t>
   </si>
   <si>
+    <t>Terry C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r336521157-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -930,6 +1062,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>410elainek</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r335467567-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -954,6 +1089,9 @@
     <t>Room was clean.  Bathroom was clean.   Shower water never got more than lukewarm. ADA shower ran water all over bathroom floor. Not enough towels. No washcloths.  Heater was very loud and interrupted sleep.  Breakfast was poor quality. We were not late for the hours of serving. There should have been more available.  We will not stay there again.  More</t>
   </si>
   <si>
+    <t>loganv787</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r334445615-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -969,6 +1107,9 @@
     <t>Responded December 26, 2015</t>
   </si>
   <si>
+    <t>Rodrigo V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r331129846-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -987,6 +1128,9 @@
     <t>Responded December 8, 2015</t>
   </si>
   <si>
+    <t>843robinm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r317400243-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -999,6 +1143,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>markcT3627ZR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r314150406-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1011,6 +1158,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>190brennap</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r303249572-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1029,6 +1179,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>421anaz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r295147755-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1056,6 +1209,9 @@
     <t>I got there late and was treated ok but when I walked into the room there was a very strong smell of urine.  The room appeared to be clean but in the morning you could see the big spots on the carpet and the smell was irritating.  To check out there was no one at the window and some guy came out of another house in front and was very rude as if I was interrupting him.  I would not recommend at all.   More</t>
   </si>
   <si>
+    <t>johnaN1567KZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r293873605-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1080,6 +1236,9 @@
     <t>Slow check in, there was not one at the front desk. I had to wait for someone to come from one of the rooms to check me in. The room had a dirty carpet, dirty bathroom. Motel 6 has a better price and better looking rooms. More</t>
   </si>
   <si>
+    <t>jesusg436</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r291972291-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1095,6 +1254,9 @@
     <t>Clean room and comfortable stay. The only bad thing was that the room was hot but after 20 min with the AC on high it was all good.</t>
   </si>
   <si>
+    <t>671lindao</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r288714652-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1113,6 +1275,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>muahaha_its_cris</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r288036605-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1137,6 +1302,9 @@
     <t>At the last minute we had to bring an extra child with us. When I checked in, they counted the people and the manager never told me there would be or will be an extra person charge. I asked for the receipt when I checked out. That's when I noticed that he had charged my credit card for an extra person without  letting me know. He could have notified me at check-in or check-out. I found out on my own on the receipt after. More</t>
   </si>
   <si>
+    <t>Lyn T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r287449886-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1152,6 +1320,9 @@
     <t>When we checked in Nick the manager was very nice. It was on one of the main streets. Room was clean and very nice. The bed was a little uncomfortable. When we left I told the manager on duty that possibly the mattress needed to be flipped over and she said she'd let housekeeping know. The continental breakfast was pretty sparse. We only stayed one night because there was no pool and we didn't realize it when we booked 3 nights. Nick was gracious enough to refund us the 2 nights we didn't stay.</t>
   </si>
   <si>
+    <t>Chernabog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r282498261-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1161,6 +1332,9 @@
     <t>06/23/2015</t>
   </si>
   <si>
+    <t>Rob N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r280728605-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1179,6 +1353,9 @@
     <t>The reviews of this property that I read were good and it did live up to expectations. The owners were nice and checkin was quick. The room was freshly painted, had new sink and fixtures, and was very clean.The neighborhood is also very nice and safe. I have stayed at other hotels nearby and that wasn't the case. The one down side was that the WiFi was extremely slow. I think they need more than one router on the property.  Having good WiFi is very important to me, because I do work on the computer when I am at a room. I hope they work on this issue. I would definitely recommend and stay again. More</t>
   </si>
   <si>
+    <t>fred s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r279942856-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1194,6 +1371,9 @@
     <t>this place was the only place for miles who would accommodate my stay. i needed to check in early in the morning from a long drive and they were able to make that happen, there was a small fee which i didnt mind paying. very clean, quiet, cozy, everything was new. absolutely loved this place and will be staying there again.</t>
   </si>
   <si>
+    <t>Kathi H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r271696943-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1212,6 +1392,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>A Wyndham traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r268710235-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1224,6 +1407,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Hope C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r263992474-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1236,6 +1422,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Don R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r251556177-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1248,6 +1437,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>motopoet59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r247421993-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1266,6 +1458,9 @@
     <t>We just wanted a place to crash after the Anaheim supercross so I reserved a room here a few months ago. We were not able.to get there before the race and they had no problem with the late check in. The staff were very friendly and helpful at both check in and out. The motel is in downtown Brea in a nice area of a nice town. It is very quiet and clean with comfortable beds, flat screen TV (the cable was messed up according to a nite at the front desk but we didn't see any issues), free wi-fi, hair dryerand coffee pot. It is also close to pretty much anything you need in the way of food and stores. It isn't the Ritz, but I recommend it and will stay there again.sMore</t>
   </si>
   <si>
+    <t>DRay333</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r247265915-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1284,6 +1479,9 @@
     <t>Responded January 7, 2015</t>
   </si>
   <si>
+    <t>Mary R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r245166674-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1299,6 +1497,9 @@
     <t>if you complain about the beds, just bring your own pillows so you are the most comfortable. staying here is always great!</t>
   </si>
   <si>
+    <t>James M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r243556012-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1329,6 +1530,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Stephen P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r223182522-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1347,6 +1551,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Kaffee M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r219702677-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1374,6 +1581,9 @@
     <t>The motel is everything a $80 motel should be, not more and not less. Clean and comfortable. If you chose to stay here because they offer free breakfast you can forget about it. The coffee was awful, the pastry tray was completely empty at 7:30am, I had to ask for milk and got a tiny little plastic cup not even enough for the cereal....I ended up going across the street to a donuts shop.More</t>
   </si>
   <si>
+    <t>Robert A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r218482031-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1389,6 +1599,9 @@
     <t>Responded August 1, 2014</t>
   </si>
   <si>
+    <t>Sarah K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r215600828-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1404,6 +1617,9 @@
     <t>Responded July 16, 2014</t>
   </si>
   <si>
+    <t>422Sophia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r214735015-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1413,6 +1629,9 @@
     <t>07/10/2014</t>
   </si>
   <si>
+    <t>Jamie W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r214374084-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1428,6 +1647,9 @@
     <t>My family and I rented 2 rooms over the 4th of July holiday.  Both rooms were very clean and quiet, with quality furnishings.  Front desk staff was courteous, prompt and attentive to our needs.  This was our 2nd time staying at this property, and would definitely stay there again.</t>
   </si>
   <si>
+    <t>David L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r210508863-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1440,6 +1662,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Tracy R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r208701106-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1458,6 +1683,9 @@
     <t>Responded June 4, 2014</t>
   </si>
   <si>
+    <t>STEVEN F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r207146378-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1473,6 +1701,9 @@
     <t>The rooms are very clean and well taken care of. There is parking outside of the rooms at this Motel.The only problem encountered was the sound of water when someone in a room next door used the toilet or sink at night.The free breakfast is just enough to 'get-bye'.Overall considering the cost, this is a good place to stay.</t>
   </si>
   <si>
+    <t>Larry F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r204678196-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1491,6 +1722,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>447Glenn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r203039603-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1506,6 +1740,9 @@
     <t xml:space="preserve">This is a smaller place run by the Owner and his family. They were very gracious in their hospitality and were always glad to see guests. The setting is downtown Brea and there is traffic but the noise seemed inconsequential. I will not hesitate to use this location in the future. </t>
   </si>
   <si>
+    <t>Janet F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r200531476-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1521,6 +1758,9 @@
     <t>I stayed 3 days and had a wonderful experience.  First was the price:  $58.00 a night.  The rooms were clean and the pillowtop beds were very comfortable,  The owner was very friendly as were all the staff..  The continental breakfast was more than adequate.  I travel to CA at least 3 times a year and will definitely go back to this location close to downtown Brea.  Give this motel a try!</t>
   </si>
   <si>
+    <t>theodored543</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r198198948-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1533,6 +1773,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Benson W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r197262171-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1545,6 +1788,9 @@
     <t xml:space="preserve">Not fancy, but clean comfy rooms and friendly staff. Just what I wanted for the moderate price. Close to downtown. I was brought a coffee maker and fresh ground coffee (every morning), and a non functioning hair dryer was replaced immediately. Overall, a nice stay. </t>
   </si>
   <si>
+    <t>Angel R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r195484931-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1563,6 +1809,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Ruth C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r193201030-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1572,6 +1821,9 @@
     <t>02/05/2014</t>
   </si>
   <si>
+    <t>Thomas B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r192242250-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1584,6 +1836,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>L M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r190924021-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1599,6 +1854,9 @@
     <t>Responded January 16, 2014</t>
   </si>
   <si>
+    <t>Ed K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r189231590-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1611,6 +1869,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Cecil G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r188510770-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1620,6 +1881,9 @@
     <t>12/25/2013</t>
   </si>
   <si>
+    <t>Elizabeth B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r187623520-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1632,6 +1896,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Robert W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r182754354-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1644,6 +1911,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Rey510 A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r181393605-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1653,6 +1923,9 @@
     <t>10/17/2013</t>
   </si>
   <si>
+    <t>Ronald P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r181204157-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1668,6 +1941,9 @@
     <t>From reception to cleaners a very friendly approach, the rooms are simple but nicely decorated incl., the bath room, all is clean and close to Fullerton and Brea centers.Breakfast including, but just wrapped cheap Danish and similar coffee, the banana was great though. Have a good stay there, I will be back.</t>
   </si>
   <si>
+    <t>Ayad M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r180322949-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1692,6 +1968,9 @@
     <t>My bed sheet cover and mattress cover were all full of blood stains! I asked the mgr to replace them and he said he didn't have any clean covers!!Also he was very rude and not friendly at all, he didn't even apologize for this and he only said you can leave if you don't like it,No more travelodge in brea and no more travelodge at all. I also didn't appreciate your agent who helped me in this reservation because I told him I am not sure about this motel and he said I assure you this is very good and no problems with it at all.Then immediately after he made the reservation I told him cancel please because I'm not sure yet and he said no I can't do anything now!Just having to leave at 10 pm at night to look for another place to stay was absolutely terrible.Bad service from expedia too very disappointed with your sales agent and your company as a whole for recommending this pig house in Brea,ca.Ayad MansourMore</t>
   </si>
   <si>
+    <t>genn519</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r180189323-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1704,6 +1983,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Michael R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r179262171-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1719,6 +2001,9 @@
     <t>What a surprise!  I knew it had good ratings from others but I was still surprised when I arrived.  You park right in front of your door--just like they did in the '50s but it ain't your grandad's 1950's motel.  A very nice, clean property with rooms that look like they were rehabbed last week!  Very courteous staff.  Many nice little touches like plug ins up on the wall where you can get to them.  Granite counter tops--sink, end tables by the bed and dresser.  You will enjoy your stay!  MR from MO</t>
   </si>
   <si>
+    <t>Petra N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r171090471-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1744,6 +2029,9 @@
   </si>
   <si>
     <t>The queen bed was more like the size of a double bed. I asked about this at the front desk thinking I'd accidentally been put in a room with a double, and was told that all the beds in all the rooms were queen size. The facility was clean but not very quiet. Could hear when people in the next room took a shower or laughed loudly. You can only have one device at a time logged into the wifi.More</t>
+  </si>
+  <si>
+    <t>Hyakinthos</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r170648459-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
@@ -1779,6 +2067,9 @@
 Structure - Doors did not seem to fit the door frames. We had to slam ours shut to get it to close and, judging by the noise of other guests slamming doors, it's a motel-wide issue. Locking the door also required some hefty pushing or pressing. Also, when we changed rooms, our new room had some structural problems: the door could not be opened all the way without getting stuck -- really stuck; the floor was uneven and you could feel hollowed areas beneath the carpet as if...If you're not wealthy but need to visit Orange County, this motel might suit your needs. Travelodge Brea used to be the Twin Palms and has been remodeled and given a warm, bright yellow paint job. We chose it because it was the least expensive option in the North OC area that did not look like a dive. You'll have to decide which pros and cons are important to you. We stayed more than a week.Best features: Helpful staffWorst feature: ParkingLocation - easy access to shopping, food, movies, etc.Management - Family-run. Very helpful and accommodating. I found it really hard on my back to sleep on the pillow-top mattress (too soft for me), and the manager quickly switched us to what he said was the only room with a firmer mattress. Rooms - Clean, comfortable for the most part. Most mattresses have pillow-top. Air conditioner worked very well.Structure - Doors did not seem to fit the door frames. We had to slam ours shut to get it to close and, judging by the noise of other guests slamming doors, it's a motel-wide issue. Locking the door also required some hefty pushing or pressing. Also, when we changed rooms, our new room had some structural problems: the door could not be opened all the way without getting stuck -- really stuck; the floor was uneven and you could feel hollowed areas beneath the carpet as if it had been laid over bare concrete without a cushion.Parking - Very difficult to maneuver around the parking area. We lived in fear of our tiny hybrid being rammed by a behemoth SUV because there really wasn't enough room for turning into the spots properly. In fact, on a few occasions we were not able to pull into the spot in front of our room because other guests had pulled in crooked, taking up some of the space. The problem is that there is an enormous house right in the middle of the property, perhaps where there used to be a swimming pool? It's just too big to allow for easy maneuvering around the property.Noise: Fairly quiet at night, except for the sounds of doors slamming because of the door frame issue.Towels: Few and thin. Extra towels were provided on request.Breakfast - Breakfast is over by 9 or 9:30 am! (Can't remember which, but that is too early for me!)Miscellaneous - TV was fine, but the remote took 3-4 seconds to change each channel. The digital alarm clock kept time fine, but the lighted display had some problems. I was confused to see that it was 11:93 one morning!Amenities - Great ice machine operates with your room card. I was munching ice all week, and it did not have that chlorinated OC water taste.All in all, this place had multiple niggling issues, but for the price I'd put up with them and stay here again.More</t>
   </si>
   <si>
+    <t>Dan W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r170623179-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1800,6 +2091,9 @@
     <t>07/22/2013</t>
   </si>
   <si>
+    <t>Patrick K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r167730776-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1809,6 +2103,9 @@
     <t>07/15/2013</t>
   </si>
   <si>
+    <t>KRS123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r167053583-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1818,6 +2115,9 @@
     <t>07/10/2013</t>
   </si>
   <si>
+    <t>Julie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r164639829-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1830,6 +2130,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>GymSok</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r162827612-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1848,6 +2151,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Felix H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r161243960-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1857,6 +2163,9 @@
     <t>05/20/2013</t>
   </si>
   <si>
+    <t>salchichav</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r156009772-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1875,6 +2184,9 @@
     <t>Responded April 1, 2013</t>
   </si>
   <si>
+    <t>Lee S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r155754163-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1890,6 +2202,9 @@
     <t>Access to our room was across a dirt construction area.  It will be beautiful when it is finished, but not on the weekend of the 23rd.  However, the staff helped with our bags going in and the room was great.  It appears that the rooms are totally rebuilt, floor to ceiling, wall to wall.  Very quiet except for the bathroom fan and the under-the-window AC unit.  Not all buttons on the universal TV remote had been programmed, but we did not use the TV much. Breakfast was the usual for Travelodge, just pastries, dry cereal, fruit and coffee.  The eating area is very small, so no room for waffles.  The free internet was good.  I would stay there again once the paving is done.More</t>
   </si>
   <si>
+    <t>C B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r155624930-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1914,6 +2229,9 @@
     <t>Responded March 20, 2013</t>
   </si>
   <si>
+    <t>Robin C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r154309054-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1923,6 +2241,9 @@
     <t>03/11/2013</t>
   </si>
   <si>
+    <t>VirenU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r153542047-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1941,6 +2262,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>Frankt95</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r150460868-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1968,6 +2292,9 @@
     <t>We stayed at this motel for 3 nights.  Negative: sometimes we can hear conversation from the adjacent room, or some minor traffic noise.  But those noise did not prevent us from having good sleeps and I am a difficult person to fall into sleep.  The room is clean, has flat screen TV, free wifi internet, microwave and small refrigerator.  The owners live on the premise, and they are nice people.  The Brea area is beautiful, and safe.  We could exercise at the YMCA 10 minutes away.  Grocery is nearby too.More</t>
   </si>
   <si>
+    <t>FortuneCookieCrunch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r144267978-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -1989,6 +2316,9 @@
     <t>Great place to stay! flat screen TV, a granite countertops and more in the remodeled rooms. In my opinion better than a lot of hotels that I've stayed at. Room service was timely and good and rooms came with fridge and  microwave at no cost compared to hotels. The owners are good people and service was always good when needed.The locations was also great too, close to plenty of shopping and dining, also last but not not least the price was the best in the area!!More</t>
   </si>
   <si>
+    <t>Kira F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r143901242-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -2007,6 +2337,9 @@
     <t>My husband and I found this motel on TripAdvisor and were overall pleased with our stay there. It was extremely affordable compared with the place where we were originally planning to stay. Although it's a modest establishment, our room was spotless and had everything we needed, including a microwave and fridge. The room was spacious enough for us to have places for our suitcases and other possessions without having to trip over them. The proprietors were courteous and helpful.More</t>
   </si>
   <si>
+    <t>Susan P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r125049374-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -2025,6 +2358,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>hirola</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r124647413-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -2040,6 +2376,9 @@
     <t>Stayed here for one night.  Two problems:  1) The door to the room isn`t fully insulated and soyou can very clearly hear the slamming doors of the cars parking in the lot so that kept waking me up at night.   2) The t.v. is bolted to the wall and so it`s uncomfortable to look at.  I wish these motels wouldn`t do this.   Otherwise, an okay place, probably a lot better than others.</t>
   </si>
   <si>
+    <t>Forgottensage</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r122247486-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -2061,6 +2400,9 @@
     <t>I've seen this row of motels a number of times. I chose Twin Palms because a pre-room check showed it to be very clean. The owners, including friendly Nick, live on the property in the middle of the complex in a nice house that gives a homey feel to the place . . . right across the street is Kimmie's breakfast restaurant &amp; you can walk down the street to a local burger joint, a park, and a little bit further to Downtown Brea and the brand new Farrel's Ice Cream Parlor. The area is nice and safe, and though it's about 30 minutes from Disneyland, you will save a lot of money and be in a peaceful yet conveniently located spot. I'd stay here again.More</t>
   </si>
   <si>
+    <t>SamTim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r81401200-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
   </si>
   <si>
@@ -2077,6 +2419,9 @@
   </si>
   <si>
     <t>August 2010</t>
+  </si>
+  <si>
+    <t>TheStutsman</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32107-d1115726-r62613381-Travelodge_by_Wyndham_Brea-Brea_California.html</t>
@@ -2608,43 +2953,47 @@
       <c r="A2" t="n">
         <v>47881</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2660,56 +3009,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>47881</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -2731,54 +3084,58 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>47881</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2800,41 +3157,45 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>47881</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2842,10 +3203,10 @@
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -2866,51 +3227,52 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>47881</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="O6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2924,35 +3286,39 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>47881</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -2960,10 +3326,10 @@
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2984,49 +3350,50 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>47881</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -3048,41 +3415,45 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="X8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Y8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>47881</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -3090,10 +3461,10 @@
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -3114,49 +3485,50 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>47881</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -3178,56 +3550,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="X10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="Y10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>47881</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -3249,47 +3625,51 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="X11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>47881</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
@@ -3308,50 +3688,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>47881</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -3375,50 +3759,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>47881</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -3440,56 +3828,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="X14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>47881</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3513,35 +3905,39 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>47881</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
@@ -3549,10 +3945,10 @@
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -3573,36 +3969,37 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>47881</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>155</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s"/>
@@ -3610,10 +4007,10 @@
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="O17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3634,51 +4031,52 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>47881</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="K18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="O18" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P18" t="n">
         <v>2</v>
@@ -3700,54 +4098,58 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="X18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="Y18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>47881</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="J19" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -3769,41 +4171,45 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="X19" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="Y19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>47881</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>174</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s"/>
@@ -3811,10 +4217,10 @@
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="O20" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3835,36 +4241,37 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
-      <c r="Y20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>47881</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>178</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="J21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s"/>
@@ -3872,10 +4279,10 @@
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -3896,36 +4303,37 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>47881</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>183</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="J22" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s"/>
@@ -3933,10 +4341,10 @@
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="O22" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -3957,49 +4365,50 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
-      <c r="Y22" t="s"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>47881</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="J23" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="O23" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -4021,41 +4430,45 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="X23" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="Y23" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>47881</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>195</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="J24" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s"/>
@@ -4063,10 +4476,10 @@
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="O24" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -4087,42 +4500,43 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
-      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>47881</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>199</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="J25" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="K25" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="L25" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
@@ -4141,35 +4555,39 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>47881</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>205</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="J26" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s"/>
@@ -4177,10 +4595,10 @@
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="O26" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -4201,51 +4619,52 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
-      <c r="Y26" t="s"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>47881</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>209</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="J27" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="K27" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="L27" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="O27" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -4267,56 +4686,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="X27" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="Y27" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>47881</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>218</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="J28" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="K28" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="L28" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="O28" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -4338,56 +4761,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="X28" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="Y28" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>47881</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>228</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="J29" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="K29" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="O29" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -4405,48 +4832,52 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>47881</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>235</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="J30" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -4468,54 +4899,58 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="X30" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="Y30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>47881</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>242</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="J31" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="O31" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -4537,56 +4972,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="X31" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="Y31" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>47881</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>248</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="J32" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="K32" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="L32" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="O32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -4608,41 +5047,45 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="X32" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="Y32" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>47881</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>258</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="J33" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s"/>
@@ -4650,10 +5093,10 @@
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="O33" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4674,51 +5117,52 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
-      <c r="Y33" t="s"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>47881</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>262</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="J34" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="K34" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="L34" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="O34" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4736,50 +5180,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>47881</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="J35" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="K35" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="L35" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4801,48 +5249,52 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>47881</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>275</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="J36" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="O36" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -4864,56 +5316,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="X36" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="Y36" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>47881</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>280</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="J37" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="K37" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="L37" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="O37" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -4935,56 +5391,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="X37" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="Y37" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>47881</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>289</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="J38" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="K38" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="L38" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="O38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -5008,48 +5468,52 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>47881</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>296</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="J39" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="O39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -5071,54 +5535,58 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="X39" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="Y39" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>47881</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>302</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="J40" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="O40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -5140,41 +5608,45 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="X40" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="Y40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>47881</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>309</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="J41" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -5182,10 +5654,10 @@
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="O41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5206,49 +5678,50 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
-      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>47881</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>314</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="J42" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -5270,56 +5743,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="X42" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="Y42" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>47881</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>320</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="J43" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="K43" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="L43" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="O43" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -5341,56 +5818,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="X43" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="Y43" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>47881</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>330</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="J44" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="K44" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="L44" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="O44" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5410,50 +5891,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>47881</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>337</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="J45" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="K45" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="L45" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="O45" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5477,35 +5962,39 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>47881</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>343</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="J46" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s"/>
@@ -5513,10 +6002,10 @@
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="O46" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5537,51 +6026,52 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
-      <c r="Y46" t="s"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>47881</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>348</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="J47" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="K47" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="L47" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="O47" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P47" t="n">
         <v>2</v>
@@ -5603,54 +6093,58 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="X47" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="Y47" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>47881</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>357</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="J48" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="K48" t="s"/>
       <c r="L48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="O48" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5672,54 +6166,58 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="X48" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="Y48" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>47881</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>363</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="J49" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="O49" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5733,54 +6231,58 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="X49" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="Y49" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>47881</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>370</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>324</v>
+        <v>372</v>
       </c>
       <c r="J50" t="s">
-        <v>325</v>
+        <v>373</v>
       </c>
       <c r="K50" t="s"/>
       <c r="L50" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="O50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5804,35 +6306,39 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>47881</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>375</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="J51" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
@@ -5840,10 +6346,10 @@
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5864,51 +6370,52 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>47881</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>380</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>331</v>
+        <v>381</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="J52" t="s">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="K52" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="L52" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="O52" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5932,50 +6439,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>47881</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>387</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>337</v>
+        <v>388</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>338</v>
+        <v>389</v>
       </c>
       <c r="J53" t="s">
-        <v>339</v>
+        <v>390</v>
       </c>
       <c r="K53" t="s">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="L53" t="s">
-        <v>341</v>
+        <v>392</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>2</v>
@@ -5997,56 +6508,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="X53" t="s">
-        <v>344</v>
+        <v>395</v>
       </c>
       <c r="Y53" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>47881</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>397</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>346</v>
+        <v>398</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>347</v>
+        <v>399</v>
       </c>
       <c r="J54" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="K54" t="s">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="L54" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
       <c r="O54" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P54" t="n">
         <v>1</v>
@@ -6068,56 +6583,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="X54" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="Y54" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>47881</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>406</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="J55" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="K55" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
       <c r="L55" t="s">
-        <v>358</v>
+        <v>411</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
       <c r="O55" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -6141,50 +6660,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>358</v>
+        <v>411</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>47881</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>412</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="J56" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="K56" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="L56" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="O56" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6208,50 +6731,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>47881</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>419</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>365</v>
+        <v>420</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>366</v>
+        <v>421</v>
       </c>
       <c r="J57" t="s">
-        <v>367</v>
+        <v>422</v>
       </c>
       <c r="K57" t="s">
-        <v>368</v>
+        <v>423</v>
       </c>
       <c r="L57" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
       <c r="O57" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6263,56 +6790,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="X57" t="s">
-        <v>371</v>
+        <v>426</v>
       </c>
       <c r="Y57" t="s">
-        <v>372</v>
+        <v>427</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>47881</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>428</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>374</v>
+        <v>430</v>
       </c>
       <c r="J58" t="s">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="K58" t="s">
-        <v>376</v>
+        <v>432</v>
       </c>
       <c r="L58" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
       <c r="O58" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="n">
@@ -6330,48 +6861,52 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>47881</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>434</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>378</v>
+        <v>435</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="J59" t="s">
-        <v>380</v>
+        <v>437</v>
       </c>
       <c r="K59" t="s"/>
       <c r="L59" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="O59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -6395,50 +6930,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>47881</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>438</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>381</v>
+        <v>439</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>382</v>
+        <v>440</v>
       </c>
       <c r="J60" t="s">
-        <v>383</v>
+        <v>441</v>
       </c>
       <c r="K60" t="s">
-        <v>384</v>
+        <v>442</v>
       </c>
       <c r="L60" t="s">
-        <v>385</v>
+        <v>443</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="O60" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6462,50 +7001,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>386</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>47881</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>445</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>387</v>
+        <v>446</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>388</v>
+        <v>447</v>
       </c>
       <c r="J61" t="s">
-        <v>389</v>
+        <v>448</v>
       </c>
       <c r="K61" t="s">
-        <v>390</v>
+        <v>449</v>
       </c>
       <c r="L61" t="s">
-        <v>391</v>
+        <v>450</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="O61" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6525,50 +7068,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>391</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>47881</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>451</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>392</v>
+        <v>452</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>393</v>
+        <v>453</v>
       </c>
       <c r="J62" t="s">
-        <v>394</v>
+        <v>454</v>
       </c>
       <c r="K62" t="s">
-        <v>395</v>
+        <v>455</v>
       </c>
       <c r="L62" t="s">
-        <v>396</v>
+        <v>456</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>397</v>
+        <v>457</v>
       </c>
       <c r="O62" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6592,35 +7139,39 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>396</v>
+        <v>456</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>47881</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>458</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>398</v>
+        <v>459</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>399</v>
+        <v>460</v>
       </c>
       <c r="J63" t="s">
-        <v>400</v>
+        <v>461</v>
       </c>
       <c r="K63" t="s"/>
       <c r="L63" t="s"/>
@@ -6628,10 +7179,10 @@
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>401</v>
+        <v>462</v>
       </c>
       <c r="O63" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6652,36 +7203,37 @@
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
-      <c r="Y63" t="s"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>47881</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>463</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>402</v>
+        <v>464</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>403</v>
+        <v>465</v>
       </c>
       <c r="J64" t="s">
-        <v>404</v>
+        <v>466</v>
       </c>
       <c r="K64" t="s"/>
       <c r="L64" t="s"/>
@@ -6689,10 +7241,10 @@
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>405</v>
+        <v>467</v>
       </c>
       <c r="O64" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6713,36 +7265,37 @@
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
-      <c r="Y64" t="s"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>47881</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>468</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>406</v>
+        <v>469</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>407</v>
+        <v>470</v>
       </c>
       <c r="J65" t="s">
-        <v>408</v>
+        <v>471</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s"/>
@@ -6750,10 +7303,10 @@
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>409</v>
+        <v>472</v>
       </c>
       <c r="O65" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6774,42 +7327,43 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
-      <c r="Y65" t="s"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>47881</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>473</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>410</v>
+        <v>474</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>411</v>
+        <v>475</v>
       </c>
       <c r="J66" t="s">
-        <v>412</v>
+        <v>476</v>
       </c>
       <c r="K66" t="s">
-        <v>413</v>
+        <v>477</v>
       </c>
       <c r="L66" t="s">
-        <v>414</v>
+        <v>478</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
@@ -6838,48 +7392,52 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>415</v>
+        <v>479</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>47881</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>480</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>416</v>
+        <v>481</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>417</v>
+        <v>482</v>
       </c>
       <c r="J67" t="s">
-        <v>418</v>
+        <v>483</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M67" t="n">
         <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>419</v>
+        <v>484</v>
       </c>
       <c r="O67" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P67" t="n">
         <v>2</v>
@@ -6901,56 +7459,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>420</v>
+        <v>485</v>
       </c>
       <c r="X67" t="s">
-        <v>421</v>
+        <v>486</v>
       </c>
       <c r="Y67" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>47881</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>487</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>422</v>
+        <v>488</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>423</v>
+        <v>489</v>
       </c>
       <c r="J68" t="s">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="K68" t="s">
-        <v>425</v>
+        <v>491</v>
       </c>
       <c r="L68" t="s">
-        <v>426</v>
+        <v>492</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>419</v>
+        <v>484</v>
       </c>
       <c r="O68" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6974,50 +7536,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>426</v>
+        <v>492</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>47881</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>493</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>427</v>
+        <v>494</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>428</v>
+        <v>495</v>
       </c>
       <c r="J69" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="K69" t="s">
-        <v>430</v>
+        <v>497</v>
       </c>
       <c r="L69" t="s">
-        <v>431</v>
+        <v>498</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>419</v>
+        <v>484</v>
       </c>
       <c r="O69" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7041,35 +7607,39 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>432</v>
+        <v>499</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>47881</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>487</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>433</v>
+        <v>500</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>434</v>
+        <v>501</v>
       </c>
       <c r="J70" t="s">
-        <v>435</v>
+        <v>502</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s"/>
@@ -7077,10 +7647,10 @@
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>436</v>
+        <v>503</v>
       </c>
       <c r="O70" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7101,51 +7671,52 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
-      <c r="Y70" t="s"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>47881</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>504</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>437</v>
+        <v>505</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>438</v>
+        <v>506</v>
       </c>
       <c r="J71" t="s">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="K71" t="s">
-        <v>440</v>
+        <v>508</v>
       </c>
       <c r="L71" t="s">
-        <v>441</v>
+        <v>509</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>442</v>
+        <v>510</v>
       </c>
       <c r="O71" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7169,50 +7740,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>441</v>
+        <v>509</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>47881</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>511</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>443</v>
+        <v>512</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>444</v>
+        <v>513</v>
       </c>
       <c r="J72" t="s">
-        <v>445</v>
+        <v>514</v>
       </c>
       <c r="K72" t="s">
-        <v>446</v>
+        <v>515</v>
       </c>
       <c r="L72" t="s">
-        <v>447</v>
+        <v>516</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>448</v>
+        <v>517</v>
       </c>
       <c r="O72" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -7228,54 +7803,58 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>449</v>
+        <v>518</v>
       </c>
       <c r="X72" t="s">
-        <v>450</v>
+        <v>519</v>
       </c>
       <c r="Y72" t="s">
-        <v>451</v>
+        <v>520</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>47881</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>521</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>452</v>
+        <v>522</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>453</v>
+        <v>523</v>
       </c>
       <c r="J73" t="s">
-        <v>454</v>
+        <v>524</v>
       </c>
       <c r="K73" t="s"/>
       <c r="L73" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>448</v>
+        <v>517</v>
       </c>
       <c r="O73" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P73" t="n">
         <v>1</v>
@@ -7297,54 +7876,58 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>455</v>
+        <v>525</v>
       </c>
       <c r="X73" t="s">
-        <v>456</v>
+        <v>526</v>
       </c>
       <c r="Y73" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>47881</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>527</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>457</v>
+        <v>528</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>458</v>
+        <v>529</v>
       </c>
       <c r="J74" t="s">
-        <v>459</v>
+        <v>530</v>
       </c>
       <c r="K74" t="s"/>
       <c r="L74" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>448</v>
+        <v>517</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -7366,41 +7949,45 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>460</v>
+        <v>531</v>
       </c>
       <c r="X74" t="s">
-        <v>461</v>
+        <v>532</v>
       </c>
       <c r="Y74" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>47881</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>533</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>462</v>
+        <v>534</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>463</v>
+        <v>535</v>
       </c>
       <c r="J75" t="s">
-        <v>464</v>
+        <v>536</v>
       </c>
       <c r="K75" t="s"/>
       <c r="L75" t="s"/>
@@ -7408,10 +7995,10 @@
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>448</v>
+        <v>517</v>
       </c>
       <c r="O75" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7432,51 +8019,52 @@
       <c r="V75" t="n">
         <v>0</v>
       </c>
-      <c r="W75" t="s"/>
-      <c r="X75" t="s"/>
-      <c r="Y75" t="s"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>47881</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>537</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>465</v>
+        <v>538</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>466</v>
+        <v>539</v>
       </c>
       <c r="J76" t="s">
-        <v>467</v>
+        <v>540</v>
       </c>
       <c r="K76" t="s">
-        <v>468</v>
+        <v>541</v>
       </c>
       <c r="L76" t="s">
-        <v>469</v>
+        <v>542</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>448</v>
+        <v>517</v>
       </c>
       <c r="O76" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7500,35 +8088,39 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>469</v>
+        <v>542</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>47881</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>543</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>470</v>
+        <v>544</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>471</v>
+        <v>545</v>
       </c>
       <c r="J77" t="s">
-        <v>472</v>
+        <v>546</v>
       </c>
       <c r="K77" t="s"/>
       <c r="L77" t="s"/>
@@ -7536,10 +8128,10 @@
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="O77" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7560,49 +8152,50 @@
       <c r="V77" t="n">
         <v>0</v>
       </c>
-      <c r="W77" t="s"/>
-      <c r="X77" t="s"/>
-      <c r="Y77" t="s"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>47881</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>548</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>474</v>
+        <v>549</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="J78" t="s">
-        <v>476</v>
+        <v>551</v>
       </c>
       <c r="K78" t="s"/>
       <c r="L78" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M78" t="n">
         <v>2</v>
       </c>
       <c r="N78" t="s">
-        <v>477</v>
+        <v>552</v>
       </c>
       <c r="O78" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -7624,56 +8217,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>478</v>
+        <v>553</v>
       </c>
       <c r="X78" t="s">
-        <v>479</v>
+        <v>554</v>
       </c>
       <c r="Y78" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>47881</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>555</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>480</v>
+        <v>556</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>481</v>
+        <v>557</v>
       </c>
       <c r="J79" t="s">
-        <v>482</v>
+        <v>558</v>
       </c>
       <c r="K79" t="s">
-        <v>483</v>
+        <v>559</v>
       </c>
       <c r="L79" t="s">
-        <v>484</v>
+        <v>560</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>477</v>
+        <v>552</v>
       </c>
       <c r="O79" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7697,50 +8294,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>484</v>
+        <v>560</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>47881</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>561</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>485</v>
+        <v>562</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>486</v>
+        <v>563</v>
       </c>
       <c r="J80" t="s">
-        <v>487</v>
+        <v>564</v>
       </c>
       <c r="K80" t="s">
-        <v>488</v>
+        <v>565</v>
       </c>
       <c r="L80" t="s">
-        <v>489</v>
+        <v>566</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>490</v>
+        <v>567</v>
       </c>
       <c r="O80" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7764,50 +8365,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>489</v>
+        <v>566</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>47881</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>568</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>491</v>
+        <v>569</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>492</v>
+        <v>570</v>
       </c>
       <c r="J81" t="s">
-        <v>493</v>
+        <v>571</v>
       </c>
       <c r="K81" t="s">
-        <v>494</v>
+        <v>572</v>
       </c>
       <c r="L81" t="s">
-        <v>495</v>
+        <v>573</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>490</v>
+        <v>567</v>
       </c>
       <c r="O81" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7831,50 +8436,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>495</v>
+        <v>573</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>47881</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>574</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>496</v>
+        <v>575</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>497</v>
+        <v>576</v>
       </c>
       <c r="J82" t="s">
-        <v>498</v>
+        <v>577</v>
       </c>
       <c r="K82" t="s">
-        <v>499</v>
+        <v>578</v>
       </c>
       <c r="L82" t="s">
-        <v>500</v>
+        <v>579</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>490</v>
+        <v>567</v>
       </c>
       <c r="O82" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7898,35 +8507,39 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>500</v>
+        <v>579</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>47881</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>580</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>501</v>
+        <v>581</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>502</v>
+        <v>582</v>
       </c>
       <c r="J83" t="s">
-        <v>503</v>
+        <v>583</v>
       </c>
       <c r="K83" t="s"/>
       <c r="L83" t="s"/>
@@ -7934,10 +8547,10 @@
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>504</v>
+        <v>584</v>
       </c>
       <c r="O83" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -7958,51 +8571,52 @@
       <c r="V83" t="n">
         <v>0</v>
       </c>
-      <c r="W83" t="s"/>
-      <c r="X83" t="s"/>
-      <c r="Y83" t="s"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>47881</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>585</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>505</v>
+        <v>586</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>506</v>
+        <v>587</v>
       </c>
       <c r="J84" t="s">
-        <v>507</v>
+        <v>588</v>
       </c>
       <c r="K84" t="s">
         <v>10</v>
       </c>
       <c r="L84" t="s">
-        <v>508</v>
+        <v>589</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>504</v>
+        <v>584</v>
       </c>
       <c r="O84" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8026,50 +8640,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>508</v>
+        <v>589</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>47881</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>590</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>509</v>
+        <v>591</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>510</v>
+        <v>592</v>
       </c>
       <c r="J85" t="s">
-        <v>511</v>
+        <v>593</v>
       </c>
       <c r="K85" t="s">
-        <v>512</v>
+        <v>594</v>
       </c>
       <c r="L85" t="s">
-        <v>513</v>
+        <v>595</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>514</v>
+        <v>596</v>
       </c>
       <c r="O85" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
@@ -8083,35 +8701,39 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>513</v>
+        <v>595</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>47881</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>597</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>515</v>
+        <v>598</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>516</v>
+        <v>599</v>
       </c>
       <c r="J86" t="s">
-        <v>517</v>
+        <v>600</v>
       </c>
       <c r="K86" t="s"/>
       <c r="L86" t="s"/>
@@ -8119,10 +8741,10 @@
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>514</v>
+        <v>596</v>
       </c>
       <c r="O86" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8143,36 +8765,37 @@
       <c r="V86" t="n">
         <v>0</v>
       </c>
-      <c r="W86" t="s"/>
-      <c r="X86" t="s"/>
-      <c r="Y86" t="s"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>47881</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>601</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>518</v>
+        <v>602</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>519</v>
+        <v>603</v>
       </c>
       <c r="J87" t="s">
-        <v>520</v>
+        <v>604</v>
       </c>
       <c r="K87" t="s"/>
       <c r="L87" t="s"/>
@@ -8180,10 +8803,10 @@
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>521</v>
+        <v>605</v>
       </c>
       <c r="O87" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8204,49 +8827,50 @@
       <c r="V87" t="n">
         <v>0</v>
       </c>
-      <c r="W87" t="s"/>
-      <c r="X87" t="s"/>
-      <c r="Y87" t="s"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>47881</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>606</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>522</v>
+        <v>607</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>523</v>
+        <v>608</v>
       </c>
       <c r="J88" t="s">
-        <v>524</v>
+        <v>609</v>
       </c>
       <c r="K88" t="s"/>
       <c r="L88" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M88" t="n">
         <v>3</v>
       </c>
       <c r="N88" t="s">
-        <v>521</v>
+        <v>605</v>
       </c>
       <c r="O88" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8268,41 +8892,45 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>525</v>
+        <v>610</v>
       </c>
       <c r="X88" t="s">
-        <v>526</v>
+        <v>611</v>
       </c>
       <c r="Y88" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>47881</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>612</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>527</v>
+        <v>613</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>528</v>
+        <v>614</v>
       </c>
       <c r="J89" t="s">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="K89" t="s"/>
       <c r="L89" t="s"/>
@@ -8310,10 +8938,10 @@
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>530</v>
+        <v>616</v>
       </c>
       <c r="O89" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -8334,36 +8962,37 @@
       <c r="V89" t="n">
         <v>0</v>
       </c>
-      <c r="W89" t="s"/>
-      <c r="X89" t="s"/>
-      <c r="Y89" t="s"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>47881</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>617</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>531</v>
+        <v>618</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>532</v>
+        <v>619</v>
       </c>
       <c r="J90" t="s">
-        <v>533</v>
+        <v>620</v>
       </c>
       <c r="K90" t="s"/>
       <c r="L90" t="s"/>
@@ -8371,10 +9000,10 @@
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>530</v>
+        <v>616</v>
       </c>
       <c r="O90" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8395,36 +9024,37 @@
       <c r="V90" t="n">
         <v>0</v>
       </c>
-      <c r="W90" t="s"/>
-      <c r="X90" t="s"/>
-      <c r="Y90" t="s"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>47881</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>621</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>534</v>
+        <v>622</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>535</v>
+        <v>623</v>
       </c>
       <c r="J91" t="s">
-        <v>536</v>
+        <v>624</v>
       </c>
       <c r="K91" t="s"/>
       <c r="L91" t="s"/>
@@ -8432,10 +9062,10 @@
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>537</v>
+        <v>625</v>
       </c>
       <c r="O91" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8454,36 +9084,37 @@
       <c r="V91" t="n">
         <v>0</v>
       </c>
-      <c r="W91" t="s"/>
-      <c r="X91" t="s"/>
-      <c r="Y91" t="s"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>47881</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>626</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>538</v>
+        <v>627</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>539</v>
+        <v>628</v>
       </c>
       <c r="J92" t="s">
-        <v>540</v>
+        <v>629</v>
       </c>
       <c r="K92" t="s"/>
       <c r="L92" t="s"/>
@@ -8491,10 +9122,10 @@
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>541</v>
+        <v>630</v>
       </c>
       <c r="O92" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8515,36 +9146,37 @@
       <c r="V92" t="n">
         <v>0</v>
       </c>
-      <c r="W92" t="s"/>
-      <c r="X92" t="s"/>
-      <c r="Y92" t="s"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>47881</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>631</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>542</v>
+        <v>632</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>543</v>
+        <v>633</v>
       </c>
       <c r="J93" t="s">
-        <v>544</v>
+        <v>634</v>
       </c>
       <c r="K93" t="s"/>
       <c r="L93" t="s"/>
@@ -8552,10 +9184,10 @@
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>541</v>
+        <v>630</v>
       </c>
       <c r="O93" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -8576,51 +9208,52 @@
       <c r="V93" t="n">
         <v>0</v>
       </c>
-      <c r="W93" t="s"/>
-      <c r="X93" t="s"/>
-      <c r="Y93" t="s"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>47881</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>635</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>545</v>
+        <v>636</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>546</v>
+        <v>637</v>
       </c>
       <c r="J94" t="s">
-        <v>547</v>
+        <v>638</v>
       </c>
       <c r="K94" t="s">
-        <v>548</v>
+        <v>639</v>
       </c>
       <c r="L94" t="s">
-        <v>549</v>
+        <v>640</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>541</v>
+        <v>630</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -8644,41 +9277,45 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>549</v>
+        <v>640</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>47881</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>641</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>550</v>
+        <v>642</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>551</v>
+        <v>643</v>
       </c>
       <c r="J95" t="s">
-        <v>552</v>
+        <v>644</v>
       </c>
       <c r="K95" t="s">
-        <v>553</v>
+        <v>645</v>
       </c>
       <c r="L95" t="s">
-        <v>554</v>
+        <v>646</v>
       </c>
       <c r="M95" t="n">
         <v>1</v>
@@ -8705,41 +9342,45 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>555</v>
+        <v>647</v>
       </c>
       <c r="X95" t="s">
-        <v>556</v>
+        <v>648</v>
       </c>
       <c r="Y95" t="s">
-        <v>557</v>
+        <v>649</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>47881</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>650</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>558</v>
+        <v>651</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>559</v>
+        <v>652</v>
       </c>
       <c r="J96" t="s">
-        <v>560</v>
+        <v>653</v>
       </c>
       <c r="K96" t="s"/>
       <c r="L96" t="s"/>
@@ -8747,10 +9388,10 @@
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>561</v>
+        <v>654</v>
       </c>
       <c r="O96" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -8771,51 +9412,52 @@
       <c r="V96" t="n">
         <v>0</v>
       </c>
-      <c r="W96" t="s"/>
-      <c r="X96" t="s"/>
-      <c r="Y96" t="s"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>47881</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>655</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>563</v>
+        <v>657</v>
       </c>
       <c r="J97" t="s">
-        <v>564</v>
+        <v>658</v>
       </c>
       <c r="K97" t="s">
-        <v>565</v>
+        <v>659</v>
       </c>
       <c r="L97" t="s">
-        <v>566</v>
+        <v>660</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>561</v>
+        <v>654</v>
       </c>
       <c r="O97" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -8839,50 +9481,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>566</v>
+        <v>660</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>47881</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>661</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>567</v>
+        <v>662</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>568</v>
+        <v>663</v>
       </c>
       <c r="J98" t="s">
-        <v>569</v>
+        <v>664</v>
       </c>
       <c r="K98" t="s">
-        <v>570</v>
+        <v>665</v>
       </c>
       <c r="L98" t="s">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="M98" t="n">
         <v>3</v>
       </c>
       <c r="N98" t="s">
-        <v>572</v>
+        <v>667</v>
       </c>
       <c r="O98" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P98" t="n">
         <v>3</v>
@@ -8904,56 +9550,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>573</v>
+        <v>668</v>
       </c>
       <c r="X98" t="s">
-        <v>574</v>
+        <v>669</v>
       </c>
       <c r="Y98" t="s">
-        <v>575</v>
+        <v>670</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>47881</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>671</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>576</v>
+        <v>672</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>577</v>
+        <v>673</v>
       </c>
       <c r="J99" t="s">
-        <v>578</v>
+        <v>674</v>
       </c>
       <c r="K99" t="s">
-        <v>579</v>
+        <v>675</v>
       </c>
       <c r="L99" t="s">
-        <v>580</v>
+        <v>676</v>
       </c>
       <c r="M99" t="n">
         <v>3</v>
       </c>
       <c r="N99" t="s">
-        <v>581</v>
+        <v>677</v>
       </c>
       <c r="O99" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -8973,56 +9623,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>573</v>
+        <v>668</v>
       </c>
       <c r="X99" t="s">
-        <v>574</v>
+        <v>669</v>
       </c>
       <c r="Y99" t="s">
-        <v>582</v>
+        <v>678</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>47881</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>679</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>583</v>
+        <v>680</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>584</v>
+        <v>681</v>
       </c>
       <c r="J100" t="s">
-        <v>578</v>
+        <v>674</v>
       </c>
       <c r="K100" t="s">
-        <v>585</v>
+        <v>682</v>
       </c>
       <c r="L100" t="s">
-        <v>586</v>
+        <v>683</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>572</v>
+        <v>667</v>
       </c>
       <c r="O100" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9046,35 +9700,39 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>586</v>
+        <v>683</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>47881</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>504</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>587</v>
+        <v>684</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>588</v>
+        <v>685</v>
       </c>
       <c r="J101" t="s">
-        <v>589</v>
+        <v>686</v>
       </c>
       <c r="K101" t="s"/>
       <c r="L101" t="s"/>
@@ -9082,10 +9740,10 @@
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>581</v>
+        <v>677</v>
       </c>
       <c r="O101" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9106,36 +9764,37 @@
       <c r="V101" t="n">
         <v>0</v>
       </c>
-      <c r="W101" t="s"/>
-      <c r="X101" t="s"/>
-      <c r="Y101" t="s"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>47881</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>687</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>590</v>
+        <v>688</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>591</v>
+        <v>689</v>
       </c>
       <c r="J102" t="s">
-        <v>592</v>
+        <v>690</v>
       </c>
       <c r="K102" t="s"/>
       <c r="L102" t="s"/>
@@ -9143,10 +9802,10 @@
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>581</v>
+        <v>677</v>
       </c>
       <c r="O102" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9167,36 +9826,37 @@
       <c r="V102" t="n">
         <v>0</v>
       </c>
-      <c r="W102" t="s"/>
-      <c r="X102" t="s"/>
-      <c r="Y102" t="s"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>47881</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>691</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>593</v>
+        <v>692</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>594</v>
+        <v>693</v>
       </c>
       <c r="J103" t="s">
-        <v>595</v>
+        <v>694</v>
       </c>
       <c r="K103" t="s"/>
       <c r="L103" t="s"/>
@@ -9204,10 +9864,10 @@
         <v>4</v>
       </c>
       <c r="N103" t="s">
-        <v>581</v>
+        <v>677</v>
       </c>
       <c r="O103" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P103" t="n">
         <v>5</v>
@@ -9228,36 +9888,37 @@
       <c r="V103" t="n">
         <v>0</v>
       </c>
-      <c r="W103" t="s"/>
-      <c r="X103" t="s"/>
-      <c r="Y103" t="s"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>47881</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>695</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>596</v>
+        <v>696</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>597</v>
+        <v>697</v>
       </c>
       <c r="J104" t="s">
-        <v>598</v>
+        <v>698</v>
       </c>
       <c r="K104" t="s"/>
       <c r="L104" t="s"/>
@@ -9265,10 +9926,10 @@
         <v>4</v>
       </c>
       <c r="N104" t="s">
-        <v>599</v>
+        <v>699</v>
       </c>
       <c r="O104" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9289,51 +9950,52 @@
       <c r="V104" t="n">
         <v>0</v>
       </c>
-      <c r="W104" t="s"/>
-      <c r="X104" t="s"/>
-      <c r="Y104" t="s"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>47881</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>700</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>600</v>
+        <v>701</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>601</v>
+        <v>702</v>
       </c>
       <c r="J105" t="s">
-        <v>602</v>
+        <v>703</v>
       </c>
       <c r="K105" t="s">
-        <v>603</v>
+        <v>704</v>
       </c>
       <c r="L105" t="s">
-        <v>604</v>
+        <v>705</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
       </c>
       <c r="N105" t="s">
-        <v>605</v>
+        <v>706</v>
       </c>
       <c r="O105" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P105" t="n">
         <v>4</v>
@@ -9357,35 +10019,39 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>604</v>
+        <v>705</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>47881</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>707</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>606</v>
+        <v>708</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>607</v>
+        <v>709</v>
       </c>
       <c r="J106" t="s">
-        <v>608</v>
+        <v>710</v>
       </c>
       <c r="K106" t="s"/>
       <c r="L106" t="s"/>
@@ -9393,10 +10059,10 @@
         <v>3</v>
       </c>
       <c r="N106" t="s">
-        <v>605</v>
+        <v>706</v>
       </c>
       <c r="O106" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P106" t="n">
         <v>4</v>
@@ -9417,49 +10083,50 @@
       <c r="V106" t="n">
         <v>0</v>
       </c>
-      <c r="W106" t="s"/>
-      <c r="X106" t="s"/>
-      <c r="Y106" t="s"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>47881</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>711</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>609</v>
+        <v>712</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>610</v>
+        <v>713</v>
       </c>
       <c r="J107" t="s">
-        <v>611</v>
+        <v>714</v>
       </c>
       <c r="K107" t="s"/>
       <c r="L107" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M107" t="n">
         <v>3</v>
       </c>
       <c r="N107" t="s">
-        <v>612</v>
+        <v>715</v>
       </c>
       <c r="O107" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -9481,56 +10148,60 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>613</v>
+        <v>716</v>
       </c>
       <c r="X107" t="s">
-        <v>614</v>
+        <v>717</v>
       </c>
       <c r="Y107" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>47881</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>718</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>615</v>
+        <v>719</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>616</v>
+        <v>720</v>
       </c>
       <c r="J108" t="s">
-        <v>617</v>
+        <v>721</v>
       </c>
       <c r="K108" t="s">
-        <v>612</v>
+        <v>715</v>
       </c>
       <c r="L108" t="s">
-        <v>618</v>
+        <v>722</v>
       </c>
       <c r="M108" t="n">
         <v>4</v>
       </c>
       <c r="N108" t="s">
-        <v>612</v>
+        <v>715</v>
       </c>
       <c r="O108" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P108" t="n">
         <v>4</v>
@@ -9554,35 +10225,39 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>619</v>
+        <v>723</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>47881</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>724</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>620</v>
+        <v>725</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>621</v>
+        <v>726</v>
       </c>
       <c r="J109" t="s">
-        <v>622</v>
+        <v>727</v>
       </c>
       <c r="K109" t="s"/>
       <c r="L109" t="s"/>
@@ -9590,10 +10265,10 @@
         <v>5</v>
       </c>
       <c r="N109" t="s">
-        <v>612</v>
+        <v>715</v>
       </c>
       <c r="O109" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -9614,49 +10289,50 @@
       <c r="V109" t="n">
         <v>0</v>
       </c>
-      <c r="W109" t="s"/>
-      <c r="X109" t="s"/>
-      <c r="Y109" t="s"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>47881</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>458</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>623</v>
+        <v>728</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>624</v>
+        <v>729</v>
       </c>
       <c r="J110" t="s">
-        <v>625</v>
+        <v>730</v>
       </c>
       <c r="K110" t="s"/>
       <c r="L110" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M110" t="n">
         <v>2</v>
       </c>
       <c r="N110" t="s">
-        <v>612</v>
+        <v>715</v>
       </c>
       <c r="O110" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -9678,41 +10354,45 @@
         <v>0</v>
       </c>
       <c r="W110" t="s">
-        <v>626</v>
+        <v>731</v>
       </c>
       <c r="X110" t="s">
-        <v>627</v>
+        <v>732</v>
       </c>
       <c r="Y110" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>47881</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>733</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>628</v>
+        <v>734</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>629</v>
+        <v>735</v>
       </c>
       <c r="J111" t="s">
-        <v>630</v>
+        <v>736</v>
       </c>
       <c r="K111" t="s"/>
       <c r="L111" t="s"/>
@@ -9720,10 +10400,10 @@
         <v>5</v>
       </c>
       <c r="N111" t="s">
-        <v>612</v>
+        <v>715</v>
       </c>
       <c r="O111" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
@@ -9744,51 +10424,52 @@
       <c r="V111" t="n">
         <v>0</v>
       </c>
-      <c r="W111" t="s"/>
-      <c r="X111" t="s"/>
-      <c r="Y111" t="s"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>47881</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>737</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>631</v>
+        <v>738</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>632</v>
+        <v>739</v>
       </c>
       <c r="J112" t="s">
-        <v>633</v>
+        <v>740</v>
       </c>
       <c r="K112" t="s">
-        <v>634</v>
+        <v>741</v>
       </c>
       <c r="L112" t="s">
-        <v>635</v>
+        <v>742</v>
       </c>
       <c r="M112" t="n">
         <v>5</v>
       </c>
       <c r="N112" t="s">
-        <v>636</v>
+        <v>743</v>
       </c>
       <c r="O112" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P112" t="n">
         <v>5</v>
@@ -9812,50 +10493,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>635</v>
+        <v>742</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>47881</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>744</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>637</v>
+        <v>745</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>638</v>
+        <v>746</v>
       </c>
       <c r="J113" t="s">
-        <v>639</v>
+        <v>747</v>
       </c>
       <c r="K113" t="s">
-        <v>640</v>
+        <v>748</v>
       </c>
       <c r="L113" t="s">
-        <v>641</v>
+        <v>749</v>
       </c>
       <c r="M113" t="n">
         <v>5</v>
       </c>
       <c r="N113" t="s">
-        <v>642</v>
+        <v>750</v>
       </c>
       <c r="O113" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P113" t="n">
         <v>5</v>
@@ -9877,56 +10562,60 @@
         <v>0</v>
       </c>
       <c r="W113" t="s">
-        <v>643</v>
+        <v>751</v>
       </c>
       <c r="X113" t="s">
-        <v>644</v>
+        <v>752</v>
       </c>
       <c r="Y113" t="s">
-        <v>645</v>
+        <v>753</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>47881</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>754</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>646</v>
+        <v>755</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>647</v>
+        <v>756</v>
       </c>
       <c r="J114" t="s">
-        <v>648</v>
+        <v>757</v>
       </c>
       <c r="K114" t="s">
-        <v>649</v>
+        <v>758</v>
       </c>
       <c r="L114" t="s">
-        <v>650</v>
+        <v>759</v>
       </c>
       <c r="M114" t="n">
         <v>5</v>
       </c>
       <c r="N114" t="s">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="O114" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P114" t="n">
         <v>5</v>
@@ -9948,56 +10637,60 @@
         <v>0</v>
       </c>
       <c r="W114" t="s">
-        <v>643</v>
+        <v>751</v>
       </c>
       <c r="X114" t="s">
-        <v>644</v>
+        <v>752</v>
       </c>
       <c r="Y114" t="s">
-        <v>652</v>
+        <v>761</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>47881</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>762</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>653</v>
+        <v>763</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>654</v>
+        <v>764</v>
       </c>
       <c r="J115" t="s">
-        <v>655</v>
+        <v>765</v>
       </c>
       <c r="K115" t="s">
-        <v>656</v>
+        <v>766</v>
       </c>
       <c r="L115" t="s">
-        <v>657</v>
+        <v>767</v>
       </c>
       <c r="M115" t="n">
         <v>4</v>
       </c>
       <c r="N115" t="s">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="O115" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P115" t="s"/>
       <c r="Q115" t="s"/>
@@ -10009,56 +10702,60 @@
         <v>0</v>
       </c>
       <c r="W115" t="s">
-        <v>643</v>
+        <v>751</v>
       </c>
       <c r="X115" t="s">
-        <v>644</v>
+        <v>752</v>
       </c>
       <c r="Y115" t="s">
-        <v>658</v>
+        <v>768</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>47881</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>769</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>659</v>
+        <v>770</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>660</v>
+        <v>771</v>
       </c>
       <c r="J116" t="s">
-        <v>661</v>
+        <v>772</v>
       </c>
       <c r="K116" t="s">
-        <v>662</v>
+        <v>773</v>
       </c>
       <c r="L116" t="s">
-        <v>663</v>
+        <v>774</v>
       </c>
       <c r="M116" t="n">
         <v>4</v>
       </c>
       <c r="N116" t="s">
-        <v>664</v>
+        <v>775</v>
       </c>
       <c r="O116" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P116" t="n">
         <v>4</v>
@@ -10082,50 +10779,54 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>663</v>
+        <v>774</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>47881</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>776</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>665</v>
+        <v>777</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>666</v>
+        <v>778</v>
       </c>
       <c r="J117" t="s">
-        <v>667</v>
+        <v>779</v>
       </c>
       <c r="K117" t="s">
-        <v>668</v>
+        <v>780</v>
       </c>
       <c r="L117" t="s">
-        <v>669</v>
+        <v>781</v>
       </c>
       <c r="M117" t="n">
         <v>4</v>
       </c>
       <c r="N117" t="s">
-        <v>664</v>
+        <v>775</v>
       </c>
       <c r="O117" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P117" t="n">
         <v>4</v>
@@ -10149,50 +10850,54 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>669</v>
+        <v>781</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>47881</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>782</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>670</v>
+        <v>783</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>671</v>
+        <v>784</v>
       </c>
       <c r="J118" t="s">
-        <v>672</v>
+        <v>785</v>
       </c>
       <c r="K118" t="s">
-        <v>673</v>
+        <v>786</v>
       </c>
       <c r="L118" t="s">
-        <v>674</v>
+        <v>787</v>
       </c>
       <c r="M118" t="n">
         <v>5</v>
       </c>
       <c r="N118" t="s">
-        <v>675</v>
+        <v>788</v>
       </c>
       <c r="O118" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P118" t="n">
         <v>5</v>
@@ -10216,50 +10921,54 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>676</v>
+        <v>789</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>47881</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>790</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>677</v>
+        <v>791</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>678</v>
+        <v>792</v>
       </c>
       <c r="J119" t="s">
-        <v>679</v>
+        <v>793</v>
       </c>
       <c r="K119" t="s">
-        <v>680</v>
+        <v>794</v>
       </c>
       <c r="L119" t="s">
-        <v>681</v>
+        <v>795</v>
       </c>
       <c r="M119" t="n">
         <v>4</v>
       </c>
       <c r="N119" t="s">
-        <v>682</v>
+        <v>796</v>
       </c>
       <c r="O119" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P119" t="s"/>
       <c r="Q119" t="s"/>
@@ -10273,50 +10982,54 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>681</v>
+        <v>795</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>47881</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>797</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>683</v>
+        <v>798</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I120" t="s">
-        <v>684</v>
+        <v>799</v>
       </c>
       <c r="J120" t="s">
-        <v>685</v>
+        <v>800</v>
       </c>
       <c r="K120" t="s">
-        <v>686</v>
+        <v>801</v>
       </c>
       <c r="L120" t="s">
-        <v>687</v>
+        <v>802</v>
       </c>
       <c r="M120" t="n">
         <v>5</v>
       </c>
       <c r="N120" t="s">
-        <v>688</v>
+        <v>803</v>
       </c>
       <c r="O120" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P120" t="n">
         <v>5</v>
@@ -10338,13 +11051,13 @@
         <v>0</v>
       </c>
       <c r="W120" t="s">
-        <v>689</v>
+        <v>804</v>
       </c>
       <c r="X120" t="s">
-        <v>690</v>
+        <v>805</v>
       </c>
       <c r="Y120" t="s">
-        <v>691</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>
